--- a/cases/goodhostpital2021/项目设置.xlsx
+++ b/cases/goodhostpital2021/项目设置.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="203">
   <si>
     <t xml:space="preserve">数据名</t>
   </si>
@@ -131,7 +131,7 @@
     <t xml:space="preserve">高优</t>
   </si>
   <si>
-    <t xml:space="preserve">新编医院填报</t>
+    <t xml:space="preserve">自制医院填报</t>
   </si>
   <si>
     <t xml:space="preserve">自</t>
@@ -179,7 +179,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">自算</t>
+    <t xml:space="preserve">组</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自制计算值</t>
   </si>
   <si>
     <t xml:space="preserve">算</t>
@@ -698,7 +701,22 @@
     <t xml:space="preserve">麻醉医师占比</t>
   </si>
   <si>
-    <t xml:space="preserve">是否为区卫健委重点专科</t>
+    <t xml:space="preserve">医院在医学人才培养方面的经费投入占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">临床带教教师和指导医师接受教育教学培训占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医院医学教育专职管理人员数与与医院教育培训学员数之比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">篇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">发表教学文章数与卫生技术人员数之比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是否为教育部或科技部重点学科或重点实验室</t>
   </si>
   <si>
     <r>
@@ -707,8 +725,53 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">否</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是否为国家卫健委临床重点专科</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">是</t>
     </r>
     <r>
@@ -719,6 +782,273 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">否</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">是否为国家中医药局重点专科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是否为省教育厅或科技厅重点学科或重点实验室</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">否</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">是否为省卫健委重点专科</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">否</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">是否为省中医药局重点专科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是否为地级市教育局或科技局重点学科或实验室</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">否</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">是否为地级卫健委重点专科</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">否</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">是否为地级中医药局重点专科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是否为县级市教育局或科技局重点学科或实验室</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">否</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">是否为县级卫健委重点专科</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">1</t>
     </r>
     <r>
@@ -727,260 +1057,22 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">否</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">否</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
       <t xml:space="preserve">0</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">是否为区教育局或科技局重点学科或实验室</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">否</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">是否为国家卫健委临床重点专科</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">否</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">是否为教育部或科技部重点学科或重点实验室</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">否</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">是否为市卫健委重点专科</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">否</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">是否为市教育厅或科技厅重点学科或重点实验室</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">否</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">医院在医学人才培养方面的经费投入占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">临床带教教师和指导医师接受教育教学培训占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医院医学教育专职管理人员数与与医院教育培训学员数之比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">篇</t>
-  </si>
-  <si>
-    <t xml:space="preserve">发表教学文章数与卫生技术人员数之比</t>
+    <t xml:space="preserve">是否为县级中医药局重点专科</t>
   </si>
   <si>
     <t xml:space="preserve">选项</t>
@@ -1047,7 +1139,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1076,6 +1168,12 @@
       <name val="PingFang SC"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1120,12 +1218,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1152,7 +1254,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9"/>
@@ -1220,7 +1322,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="9"/>
@@ -1396,17 +1498,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J106"/>
+  <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D107" activeCellId="0" sqref="D107"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A98" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C101" activeCellId="0" sqref="C101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="0" width="7"/>
   </cols>
@@ -1488,22 +1590,25 @@
       <c r="E3" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="G3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -1512,7 +1617,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>29</v>
@@ -1529,7 +1637,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
@@ -1538,27 +1646,27 @@
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
@@ -1567,27 +1675,27 @@
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
@@ -1596,27 +1704,27 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
@@ -1625,27 +1733,27 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
@@ -1654,27 +1762,27 @@
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
@@ -1683,27 +1791,27 @@
         <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>17</v>
@@ -1712,27 +1820,27 @@
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>17</v>
@@ -1741,27 +1849,27 @@
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
@@ -1770,27 +1878,27 @@
         <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
@@ -1799,27 +1907,27 @@
         <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
@@ -1828,27 +1936,27 @@
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
@@ -1857,27 +1965,27 @@
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>7</v>
@@ -1886,27 +1994,27 @@
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>17</v>
@@ -1915,27 +2023,27 @@
         <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>9</v>
@@ -1944,27 +2052,27 @@
         <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>7</v>
@@ -1973,27 +2081,27 @@
         <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>18</v>
@@ -2002,27 +2110,27 @@
         <v>3</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>18</v>
@@ -2031,27 +2139,27 @@
         <v>3</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>12</v>
@@ -2060,27 +2168,27 @@
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>7</v>
@@ -2089,27 +2197,27 @@
         <v>3</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>7</v>
@@ -2118,27 +2226,27 @@
         <v>3</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>7</v>
@@ -2147,27 +2255,27 @@
         <v>3</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>7</v>
@@ -2176,27 +2284,27 @@
         <v>3</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>7</v>
@@ -2205,27 +2313,27 @@
         <v>3</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>7</v>
@@ -2234,27 +2342,27 @@
         <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>12</v>
@@ -2263,27 +2371,27 @@
         <v>3</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>12</v>
@@ -2292,12 +2400,14 @@
         <v>3</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H31" s="1" t="s">
         <v>30</v>
       </c>
@@ -2310,7 +2420,7 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>19</v>
@@ -2319,12 +2429,14 @@
         <v>3</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G32" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H32" s="1" t="s">
         <v>30</v>
       </c>
@@ -2337,7 +2449,7 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>18</v>
@@ -2346,27 +2458,27 @@
         <v>3</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>17</v>
@@ -2378,9 +2490,11 @@
         <v>28</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G34" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H34" s="1" t="s">
         <v>30</v>
       </c>
@@ -2393,7 +2507,7 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>17</v>
@@ -2402,12 +2516,14 @@
         <v>3</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G35" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2420,7 +2536,7 @@
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0.382</v>
@@ -2435,24 +2551,24 @@
         <v>28</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.618</v>
@@ -2467,24 +2583,24 @@
         <v>28</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>17</v>
@@ -2493,27 +2609,27 @@
         <v>3</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>17</v>
@@ -2522,27 +2638,27 @@
         <v>3</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>13</v>
@@ -2551,27 +2667,27 @@
         <v>1</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>12</v>
@@ -2583,9 +2699,11 @@
         <v>28</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G41" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H41" s="1" t="s">
         <v>30</v>
       </c>
@@ -2598,7 +2716,7 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>13</v>
@@ -2607,27 +2725,27 @@
         <v>1</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>13</v>
@@ -2636,27 +2754,27 @@
         <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>13</v>
@@ -2665,27 +2783,27 @@
         <v>1</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>16</v>
@@ -2697,7 +2815,7 @@
         <v>28</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>29</v>
@@ -2714,7 +2832,7 @@
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>19</v>
@@ -2724,9 +2842,11 @@
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G46" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H46" s="1" t="s">
         <v>30</v>
       </c>
@@ -2739,7 +2859,7 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>9</v>
@@ -2748,27 +2868,27 @@
         <v>1</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>9</v>
@@ -2777,27 +2897,27 @@
         <v>1</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>9</v>
@@ -2806,27 +2926,27 @@
         <v>1</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>16</v>
@@ -2838,7 +2958,7 @@
         <v>28</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>29</v>
@@ -2855,7 +2975,7 @@
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>19</v>
@@ -2864,12 +2984,14 @@
         <v>3</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G51" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H51" s="1" t="s">
         <v>30</v>
       </c>
@@ -2882,7 +3004,7 @@
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>10</v>
@@ -2891,13 +3013,13 @@
         <v>3</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>30</v>
@@ -2906,12 +3028,12 @@
         <v>30</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>19</v>
@@ -2920,12 +3042,14 @@
         <v>3</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G53" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H53" s="1" t="s">
         <v>30</v>
       </c>
@@ -2938,7 +3062,7 @@
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>11</v>
@@ -2947,27 +3071,27 @@
         <v>3</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>9</v>
@@ -2976,27 +3100,27 @@
         <v>3</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>12</v>
@@ -3005,12 +3129,14 @@
         <v>3</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G56" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H56" s="1" t="s">
         <v>30</v>
       </c>
@@ -3023,7 +3149,7 @@
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>19</v>
@@ -3035,9 +3161,11 @@
         <v>28</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G57" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H57" s="1" t="s">
         <v>30</v>
       </c>
@@ -3050,7 +3178,7 @@
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>12</v>
@@ -3059,27 +3187,27 @@
         <v>3</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>17</v>
@@ -3088,27 +3216,27 @@
         <v>3</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>18</v>
@@ -3117,27 +3245,27 @@
         <v>3</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>18</v>
@@ -3146,27 +3274,27 @@
         <v>3</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>17</v>
@@ -3178,9 +3306,11 @@
         <v>28</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G62" s="1"/>
+        <v>85</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H62" s="1" t="s">
         <v>30</v>
       </c>
@@ -3193,7 +3323,7 @@
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>19</v>
@@ -3202,12 +3332,14 @@
         <v>3</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G63" s="1"/>
+        <v>106</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="H63" s="1" t="s">
         <v>30</v>
       </c>
@@ -3220,7 +3352,7 @@
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>14</v>
@@ -3229,27 +3361,27 @@
         <v>3</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>14</v>
@@ -3258,27 +3390,27 @@
         <v>3</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>14</v>
@@ -3287,27 +3419,27 @@
         <v>3</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>14</v>
@@ -3316,27 +3448,27 @@
         <v>3</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>14</v>
@@ -3345,27 +3477,27 @@
         <v>3</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>14</v>
@@ -3374,27 +3506,27 @@
         <v>3</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>9</v>
@@ -3403,27 +3535,27 @@
         <v>1</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>9</v>
@@ -3432,27 +3564,27 @@
         <v>1</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>11</v>
@@ -3461,27 +3593,27 @@
         <v>3</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>10</v>
@@ -3490,27 +3622,27 @@
         <v>1</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>12</v>
@@ -3519,27 +3651,27 @@
         <v>1</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>10</v>
@@ -3548,27 +3680,27 @@
         <v>1</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>10</v>
@@ -3577,27 +3709,27 @@
         <v>1</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>16</v>
@@ -3609,7 +3741,7 @@
         <v>28</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>29</v>
@@ -3626,7 +3758,7 @@
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>17</v>
@@ -3635,27 +3767,27 @@
         <v>1</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>11</v>
@@ -3664,27 +3796,27 @@
         <v>1</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>16</v>
@@ -3696,21 +3828,21 @@
         <v>28</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>9</v>
@@ -3719,27 +3851,27 @@
         <v>3</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>9</v>
@@ -3748,27 +3880,27 @@
         <v>3</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>12</v>
@@ -3777,27 +3909,27 @@
         <v>1</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>7</v>
@@ -3806,27 +3938,27 @@
         <v>1</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>17</v>
@@ -3835,27 +3967,27 @@
         <v>3</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>7</v>
@@ -3864,27 +3996,27 @@
         <v>3</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>7</v>
@@ -3893,27 +4025,27 @@
         <v>3</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>7</v>
@@ -3922,27 +4054,27 @@
         <v>3</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>9</v>
@@ -3951,27 +4083,27 @@
         <v>3</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>10</v>
@@ -3980,27 +4112,27 @@
         <v>1</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>10</v>
@@ -4009,27 +4141,27 @@
         <v>1</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>7</v>
@@ -4038,27 +4170,27 @@
         <v>3</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>18</v>
@@ -4067,27 +4199,27 @@
         <v>3</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>18</v>
@@ -4096,27 +4228,27 @@
         <v>3</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>16</v>
@@ -4125,10 +4257,10 @@
         <v>3</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>29</v>
@@ -4145,7 +4277,7 @@
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>12</v>
@@ -4154,134 +4286,146 @@
         <v>1</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B97" s="1" t="s">
         <v>158</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>28</v>
+        <v>47</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="C98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D98" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J98" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
+      <c r="C99" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="G99" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D99" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H99" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J99" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
+      <c r="C100" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B101" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D100" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>16</v>
@@ -4292,6 +4436,12 @@
       <c r="E101" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="F101" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H101" s="1" t="s">
         <v>30</v>
       </c>
@@ -4302,12 +4452,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="s">
+    <row r="102" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>168</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>16</v>
@@ -4318,6 +4468,12 @@
       <c r="E102" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="F102" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="H102" s="1" t="s">
         <v>30</v>
       </c>
@@ -4329,121 +4485,334 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I103" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D103" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H103" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J103" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="s">
+      <c r="B104" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F104" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2" t="s">
         <v>171</v>
       </c>
+      <c r="B105" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="C105" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F105" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I105" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="G105" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I105" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J105" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="C106" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I112" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4466,7 +4835,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.13"/>
@@ -4477,12 +4846,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>3</v>
@@ -4490,7 +4859,7 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>3</v>
@@ -4498,7 +4867,7 @@
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>3</v>
@@ -4506,7 +4875,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>3</v>
@@ -4514,7 +4883,7 @@
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>3</v>
@@ -4522,7 +4891,7 @@
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>3</v>
@@ -4530,7 +4899,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>3</v>
@@ -4538,7 +4907,7 @@
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>3</v>
@@ -4546,7 +4915,7 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>3</v>
@@ -4554,7 +4923,7 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>3</v>
@@ -4562,7 +4931,7 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>3</v>
@@ -4570,7 +4939,7 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>3</v>
@@ -4578,7 +4947,7 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>3</v>
@@ -4586,7 +4955,7 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>3</v>
@@ -4594,7 +4963,7 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>3</v>
@@ -4602,7 +4971,7 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>3</v>
@@ -4610,7 +4979,7 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>3</v>
@@ -4618,7 +4987,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>3</v>

--- a/cases/goodhostpital2021/项目设置.xlsx
+++ b/cases/goodhostpital2021/项目设置.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\hqcoffee\cases\goodhostpital2021\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52608D93-5EF3-4B51-95FD-B26566542CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="一级指标设置" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="二级指标设置" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="三级指标设置" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="科室设置" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="一级指标设置" sheetId="1" r:id="rId1"/>
+    <sheet name="二级指标设置" sheetId="2" r:id="rId2"/>
+    <sheet name="三级指标设置" sheetId="3" r:id="rId3"/>
+    <sheet name="科室设置" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -23,87 +28,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="203">
-  <si>
-    <t xml:space="preserve">数据名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">权重</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医疗质量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">持续发展</t>
-  </si>
-  <si>
-    <t xml:space="preserve">满意度评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">运营效率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">上级指标</t>
-  </si>
-  <si>
-    <t xml:space="preserve">功能定位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医保价值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">合理用药</t>
-  </si>
-  <si>
-    <t xml:space="preserve">服务流程</t>
-  </si>
-  <si>
-    <t xml:space="preserve">质量安全</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人员结构</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人才培养</t>
-  </si>
-  <si>
-    <t xml:space="preserve">学科建设</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医服收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">地位影响</t>
-  </si>
-  <si>
-    <t xml:space="preserve">收支结构</t>
-  </si>
-  <si>
-    <t xml:space="preserve">费用控制</t>
-  </si>
-  <si>
-    <t xml:space="preserve">资源效率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">适用范围</t>
-  </si>
-  <si>
-    <t xml:space="preserve">指标导向</t>
-  </si>
-  <si>
-    <t xml:space="preserve">计量单位</t>
-  </si>
-  <si>
-    <t xml:space="preserve">指标来源</t>
-  </si>
-  <si>
-    <t xml:space="preserve">三级中医</t>
-  </si>
-  <si>
-    <t xml:space="preserve">三级综合</t>
-  </si>
-  <si>
-    <t xml:space="preserve">二级综合</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="203">
+  <si>
+    <t>数据名</t>
+  </si>
+  <si>
+    <t>权重</t>
+  </si>
+  <si>
+    <t>医疗质量</t>
+  </si>
+  <si>
+    <t>持续发展</t>
+  </si>
+  <si>
+    <t>满意度评价</t>
+  </si>
+  <si>
+    <t>运营效率</t>
+  </si>
+  <si>
+    <t>上级指标</t>
+  </si>
+  <si>
+    <t>功能定位</t>
+  </si>
+  <si>
+    <t>医保价值</t>
+  </si>
+  <si>
+    <t>合理用药</t>
+  </si>
+  <si>
+    <t>服务流程</t>
+  </si>
+  <si>
+    <t>质量安全</t>
+  </si>
+  <si>
+    <t>人员结构</t>
+  </si>
+  <si>
+    <t>人才培养</t>
+  </si>
+  <si>
+    <t>学科建设</t>
+  </si>
+  <si>
+    <t>医服收入</t>
+  </si>
+  <si>
+    <t>地位影响</t>
+  </si>
+  <si>
+    <t>收支结构</t>
+  </si>
+  <si>
+    <t>费用控制</t>
+  </si>
+  <si>
+    <t>资源效率</t>
+  </si>
+  <si>
+    <t>适用范围</t>
+  </si>
+  <si>
+    <t>指标导向</t>
+  </si>
+  <si>
+    <t>计量单位</t>
+  </si>
+  <si>
+    <t>指标来源</t>
+  </si>
+  <si>
+    <t>三级中医</t>
+  </si>
+  <si>
+    <t>三级综合</t>
+  </si>
+  <si>
+    <t>二级综合</t>
   </si>
   <si>
     <r>
@@ -114,7 +119,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">CMI</t>
+      <t>CMI</t>
     </r>
     <r>
       <rPr>
@@ -124,17 +129,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">值</t>
+      <t>值</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">高优</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自制医院填报</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自</t>
+    <t>高优</t>
+  </si>
+  <si>
+    <t>自制医院填报</t>
+  </si>
+  <si>
+    <t>自</t>
   </si>
   <si>
     <r>
@@ -145,7 +150,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">CMI</t>
+      <t>CMI</t>
     </r>
     <r>
       <rPr>
@@ -155,7 +160,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">当量</t>
+      <t>当量</t>
     </r>
     <r>
       <rPr>
@@ -165,7 +170,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">DRGs</t>
+      <t>DRGs</t>
     </r>
     <r>
       <rPr>
@@ -175,17 +180,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">组数</t>
+      <t>组数</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">组</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自制计算值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">算</t>
+    <t>组</t>
+  </si>
+  <si>
+    <t>自制计算值</t>
+  </si>
+  <si>
+    <t>算</t>
   </si>
   <si>
     <r>
@@ -196,7 +201,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">DRGs</t>
+      <t>DRGs</t>
     </r>
     <r>
       <rPr>
@@ -206,11 +211,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">组数</t>
+      <t>组数</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">无标准</t>
+    <t>无标准</t>
   </si>
   <si>
     <r>
@@ -221,7 +226,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">I</t>
+      <t>I</t>
     </r>
     <r>
       <rPr>
@@ -231,11 +236,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">类切口手术部位感染率</t>
+      <t>类切口手术部位感染率</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">逐步降低</t>
+    <t>逐步降低</t>
   </si>
   <si>
     <r>
@@ -246,7 +251,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">百分比（</t>
+      <t>百分比（</t>
     </r>
     <r>
       <rPr>
@@ -256,7 +261,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">%</t>
+      <t>%</t>
     </r>
     <r>
       <rPr>
@@ -266,20 +271,20 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">）</t>
+      <t>）</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">病案首页</t>
-  </si>
-  <si>
-    <t xml:space="preserve">监</t>
-  </si>
-  <si>
-    <t xml:space="preserve">无</t>
-  </si>
-  <si>
-    <t xml:space="preserve">万元收入能耗占比</t>
+    <t>病案首页</t>
+  </si>
+  <si>
+    <t>监</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>万元收入能耗占比</t>
   </si>
   <si>
     <r>
@@ -290,7 +295,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">吨标煤</t>
+      <t>吨标煤</t>
     </r>
     <r>
       <rPr>
@@ -300,7 +305,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">/</t>
+      <t>/</t>
     </r>
     <r>
       <rPr>
@@ -310,107 +315,104 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">万元</t>
+      <t>万元</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">财务年报表</t>
-  </si>
-  <si>
-    <t xml:space="preserve">下转患者人次数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">逐步提高</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人次</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医院填报</t>
-  </si>
-  <si>
-    <t xml:space="preserve">考</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中医医师占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">国家医疗机构、医师、护士电子化注册系统</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中医类别执业医师含执业助理医师占执业医师总数比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中药收入占药品收入比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中药饮片收入占药品收入比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人员支出占业务支出比重</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人才培养经费投入占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">以中医为主治疗的出院患者比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中医病案首页</t>
-  </si>
-  <si>
-    <t xml:space="preserve">优质护理服务病房覆盖率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">低风险组病例死亡率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">住院下转患者人次数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">住院中医医疗服务项目收入占住院医疗收入比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">财务年报表、医院填报</t>
-  </si>
-  <si>
-    <t xml:space="preserve">住院患者基本药物使用率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">住院手术患者围手术期中医治疗比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">住院次均药品费用增幅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">住院次均费用增幅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">儿科医师占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出院患者三级手术占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出院患者中药饮片使用率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出院患者使用中医非药物疗法比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出院患者四级手术比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出院患者微创手术占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出院患者手术占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医护比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">有标准</t>
+    <t>财务年报表</t>
+  </si>
+  <si>
+    <t>下转患者人次数</t>
+  </si>
+  <si>
+    <t>逐步提高</t>
+  </si>
+  <si>
+    <t>人次</t>
+  </si>
+  <si>
+    <t>医院填报</t>
+  </si>
+  <si>
+    <t>考</t>
+  </si>
+  <si>
+    <t>中医医师占比</t>
+  </si>
+  <si>
+    <t>国家医疗机构、医师、护士电子化注册系统</t>
+  </si>
+  <si>
+    <t>中医类别执业医师含执业助理医师占执业医师总数比例</t>
+  </si>
+  <si>
+    <t>中药收入占药品收入比例</t>
+  </si>
+  <si>
+    <t>中药饮片收入占药品收入比例</t>
+  </si>
+  <si>
+    <t>人员支出占业务支出比重</t>
+  </si>
+  <si>
+    <t>人才培养经费投入占比</t>
+  </si>
+  <si>
+    <t>以中医为主治疗的出院患者比例</t>
+  </si>
+  <si>
+    <t>中医病案首页</t>
+  </si>
+  <si>
+    <t>优质护理服务病房覆盖率</t>
+  </si>
+  <si>
+    <t>低风险组病例死亡率</t>
+  </si>
+  <si>
+    <t>住院下转患者人次数</t>
+  </si>
+  <si>
+    <t>住院中医医疗服务项目收入占住院医疗收入比例</t>
+  </si>
+  <si>
+    <t>财务年报表、医院填报</t>
+  </si>
+  <si>
+    <t>住院患者基本药物使用率</t>
+  </si>
+  <si>
+    <t>住院次均药品费用增幅</t>
+  </si>
+  <si>
+    <t>住院次均费用增幅</t>
+  </si>
+  <si>
+    <t>儿科医师占比</t>
+  </si>
+  <si>
+    <t>出院患者三级手术占比</t>
+  </si>
+  <si>
+    <t>出院患者中药饮片使用率</t>
+  </si>
+  <si>
+    <t>出院患者使用中医非药物疗法比例</t>
+  </si>
+  <si>
+    <t>出院患者四级手术比例</t>
+  </si>
+  <si>
+    <t>出院患者微创手术占比</t>
+  </si>
+  <si>
+    <t>出院患者手术占比</t>
+  </si>
+  <si>
+    <t>医护比</t>
+  </si>
+  <si>
+    <t>有标准</t>
   </si>
   <si>
     <r>
@@ -421,7 +423,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">比值（</t>
+      <t>比值（</t>
     </r>
     <r>
       <rPr>
@@ -431,7 +433,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1:X</t>
+      <t>1:X</t>
     </r>
     <r>
       <rPr>
@@ -441,104 +443,95 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">）</t>
+      <t>）</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">医师人数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医师人数与开放床位数比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医疗收入增幅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">低优</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医疗服务收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">万元</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医疗收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医疗服务收入三年复合增长率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医疗服务收入占全院比重</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医疗服务收入占医疗收入比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医疗机构中药制剂收入占药品收入比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医院住院医师首次参加医师资格考试通过率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">国家卫生健康委</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医院感染管理专职人员数与开放床位数比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">对口支援医院进修人员并返回原医院人员占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医联体内医院进修人员并返回原医院人员占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">其他医院进修人员并返回原医院人员占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">博士研究生导师占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">卫生技术人员数与开放床位数比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">国家组织药品集中采购中标药品金额占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">基本药物采购品种数占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">省级招采平台</t>
-  </si>
-  <si>
-    <t xml:space="preserve">基本药物采购金额占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">省级药品集中采购平台</t>
-  </si>
-  <si>
-    <t xml:space="preserve">外省住院患者占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">实际开放床位数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">张</t>
-  </si>
-  <si>
-    <t xml:space="preserve">平均住院日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">天</t>
-  </si>
-  <si>
-    <t xml:space="preserve">开放床位使用率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">手术患者并发症发生率</t>
+    <t>医师人数</t>
+  </si>
+  <si>
+    <t>人</t>
+  </si>
+  <si>
+    <t>医师人数与开放床位数比</t>
+  </si>
+  <si>
+    <t>医疗收入增幅</t>
+  </si>
+  <si>
+    <t>低优</t>
+  </si>
+  <si>
+    <t>医疗服务收入</t>
+  </si>
+  <si>
+    <t>万元</t>
+  </si>
+  <si>
+    <t>医疗收入</t>
+  </si>
+  <si>
+    <t>医疗服务收入三年复合增长率</t>
+  </si>
+  <si>
+    <t>医疗服务收入占全院比重</t>
+  </si>
+  <si>
+    <t>医疗服务收入占医疗收入比例</t>
+  </si>
+  <si>
+    <t>医疗机构中药制剂收入占药品收入比例</t>
+  </si>
+  <si>
+    <t>医院住院医师首次参加医师资格考试通过率</t>
+  </si>
+  <si>
+    <t>国家卫生健康委</t>
+  </si>
+  <si>
+    <t>医院感染管理专职人员数与开放床位数比</t>
+  </si>
+  <si>
+    <t>博士研究生导师占比</t>
+  </si>
+  <si>
+    <t>卫生技术人员数与开放床位数比</t>
+  </si>
+  <si>
+    <t>国家组织药品集中采购中标药品金额占比</t>
+  </si>
+  <si>
+    <t>基本药物采购品种数占比</t>
+  </si>
+  <si>
+    <t>省级招采平台</t>
+  </si>
+  <si>
+    <t>基本药物采购金额占比</t>
+  </si>
+  <si>
+    <t>省级药品集中采购平台</t>
+  </si>
+  <si>
+    <t>外省住院患者占比</t>
+  </si>
+  <si>
+    <t>实际开放床位数</t>
+  </si>
+  <si>
+    <t>张</t>
+  </si>
+  <si>
+    <t>平均住院日</t>
+  </si>
+  <si>
+    <t>天</t>
+  </si>
+  <si>
+    <t>开放床位使用率</t>
+  </si>
+  <si>
+    <t>手术患者并发症发生率</t>
   </si>
   <si>
     <r>
@@ -549,7 +542,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">抗菌药物使用强度</t>
+      <t>抗菌药物使用强度</t>
     </r>
     <r>
       <rPr>
@@ -559,164 +552,155 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">DDDs</t>
+      <t>DDDs</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">DDD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">护士人数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">护士人数与开放床位数比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">护理人员系统接受中医药知识和技能培训比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">收支结余</t>
-  </si>
-  <si>
-    <t xml:space="preserve">次均药品费用增幅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">次均费用增幅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">有效收入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">核定床位数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每百名卫生技术人员中医药科研成果转化金额</t>
-  </si>
-  <si>
-    <t xml:space="preserve">元</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每百名卫生技术人员中医药科研项目经费</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每百名卫生技术人员科研成果转化金额</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每百名卫生技术人员科研项目经费</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每百名卫生技术人员重点专科经费投入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每百名卫生技术人员重点学科经费投入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点评中药处方占中药处方总数的比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点评处方占处方总数的比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">理法方药使用一致的出院患者比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">电子病历应用功能水平分级</t>
-  </si>
-  <si>
-    <t xml:space="preserve">级别</t>
-  </si>
-  <si>
-    <t xml:space="preserve">病理医师占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">省级室间质量评价临床检验项目参加率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">省级卫生健康委</t>
-  </si>
-  <si>
-    <t xml:space="preserve">省级室间质量评价临床检验项目合格率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">硕士研究生导师占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">资产负债率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">通过国家室间质量评价的临床检验项目数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">重点学科等级评分</t>
-  </si>
-  <si>
-    <t xml:space="preserve">重点监控药品收入占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">重点监控高值医用耗材收入占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">重症医师占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门急诊下转患者人次数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊中医医疗服务项目收入占门诊医疗收入比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊中药处方比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊患者中药饮片使用率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊患者使用中医非药物疗法比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊患者基本药物处方占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊患者平均预约诊疗率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊患者预约后平均等待时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">分钟</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊散装中药饮片和小包装中药饮片处方比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊次均药品费用增幅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊次均费用增幅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">非医嘱离院率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">麻醉医师占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医院在医学人才培养方面的经费投入占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">临床带教教师和指导医师接受教育教学培训占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医院医学教育专职管理人员数与与医院教育培训学员数之比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">篇</t>
-  </si>
-  <si>
-    <t xml:space="preserve">发表教学文章数与卫生技术人员数之比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是否为教育部或科技部重点学科或重点实验室</t>
+    <t>DDD</t>
+  </si>
+  <si>
+    <t>护士人数</t>
+  </si>
+  <si>
+    <t>护士人数与开放床位数比</t>
+  </si>
+  <si>
+    <t>护理人员系统接受中医药知识和技能培训比例</t>
+  </si>
+  <si>
+    <t>收支结余</t>
+  </si>
+  <si>
+    <t>次均药品费用增幅</t>
+  </si>
+  <si>
+    <t>次均费用增幅</t>
+  </si>
+  <si>
+    <t>有效收入</t>
+  </si>
+  <si>
+    <t>核定床位数</t>
+  </si>
+  <si>
+    <t>每百名卫生技术人员中医药科研成果转化金额</t>
+  </si>
+  <si>
+    <t>元</t>
+  </si>
+  <si>
+    <t>每百名卫生技术人员中医药科研项目经费</t>
+  </si>
+  <si>
+    <t>每百名卫生技术人员科研成果转化金额</t>
+  </si>
+  <si>
+    <t>每百名卫生技术人员科研项目经费</t>
+  </si>
+  <si>
+    <t>每百名卫生技术人员重点专科经费投入</t>
+  </si>
+  <si>
+    <t>每百名卫生技术人员重点学科经费投入</t>
+  </si>
+  <si>
+    <t>点评中药处方占中药处方总数的比例</t>
+  </si>
+  <si>
+    <t>点评处方占处方总数的比例</t>
+  </si>
+  <si>
+    <t>电子病历应用功能水平分级</t>
+  </si>
+  <si>
+    <t>级别</t>
+  </si>
+  <si>
+    <t>病理医师占比</t>
+  </si>
+  <si>
+    <t>省级室间质量评价临床检验项目参加率</t>
+  </si>
+  <si>
+    <t>省级卫生健康委</t>
+  </si>
+  <si>
+    <t>省级室间质量评价临床检验项目合格率</t>
+  </si>
+  <si>
+    <t>硕士研究生导师占比</t>
+  </si>
+  <si>
+    <t>资产负债率</t>
+  </si>
+  <si>
+    <t>通过国家室间质量评价的临床检验项目数</t>
+  </si>
+  <si>
+    <t>重点学科等级评分</t>
+  </si>
+  <si>
+    <t>重点监控药品收入占比</t>
+  </si>
+  <si>
+    <t>重点监控高值医用耗材收入占比</t>
+  </si>
+  <si>
+    <t>重症医师占比</t>
+  </si>
+  <si>
+    <t>门急诊下转患者人次数</t>
+  </si>
+  <si>
+    <t>门诊中医医疗服务项目收入占门诊医疗收入比例</t>
+  </si>
+  <si>
+    <t>门诊中药处方比例</t>
+  </si>
+  <si>
+    <t>门诊患者中药饮片使用率</t>
+  </si>
+  <si>
+    <t>门诊患者使用中医非药物疗法比例</t>
+  </si>
+  <si>
+    <t>门诊患者基本药物处方占比</t>
+  </si>
+  <si>
+    <t>门诊患者平均预约诊疗率</t>
+  </si>
+  <si>
+    <t>门诊患者预约后平均等待时间</t>
+  </si>
+  <si>
+    <t>分钟</t>
+  </si>
+  <si>
+    <t>门诊散装中药饮片和小包装中药饮片处方比例</t>
+  </si>
+  <si>
+    <t>门诊次均药品费用增幅</t>
+  </si>
+  <si>
+    <t>门诊次均费用增幅</t>
+  </si>
+  <si>
+    <t>非医嘱离院率</t>
+  </si>
+  <si>
+    <t>麻醉医师占比</t>
+  </si>
+  <si>
+    <t>医院在医学人才培养方面的经费投入占比</t>
+  </si>
+  <si>
+    <t>临床带教教师和指导医师接受教育教学培训占比</t>
+  </si>
+  <si>
+    <t>发表教学文章数与卫生技术人员数之比</t>
+  </si>
+  <si>
+    <t>是否为教育部或科技部重点学科或重点实验室</t>
   </si>
   <si>
     <r>
@@ -726,7 +710,7 @@
         <rFont val="PingFang SC"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">是</t>
+      <t>是</t>
     </r>
     <r>
       <rPr>
@@ -736,7 +720,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8</t>
+      <t>8</t>
     </r>
     <r>
       <rPr>
@@ -745,7 +729,7 @@
         <rFont val="PingFang SC"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">否</t>
+      <t>否</t>
     </r>
     <r>
       <rPr>
@@ -755,14 +739,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t>0</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">分</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是否为国家卫健委临床重点专科</t>
+    <t>分</t>
+  </si>
+  <si>
+    <t>是否为国家卫健委临床重点专科</t>
   </si>
   <si>
     <r>
@@ -772,7 +756,7 @@
         <rFont val="PingFang SC"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">是</t>
+      <t>是</t>
     </r>
     <r>
       <rPr>
@@ -782,7 +766,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7</t>
+      <t>7</t>
     </r>
     <r>
       <rPr>
@@ -791,7 +775,7 @@
         <rFont val="PingFang SC"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">否</t>
+      <t>否</t>
     </r>
     <r>
       <rPr>
@@ -801,14 +785,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t>0</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">是否为国家中医药局重点专科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是否为省教育厅或科技厅重点学科或重点实验室</t>
+    <t>是否为国家中医药局重点专科</t>
+  </si>
+  <si>
+    <t>是否为省教育厅或科技厅重点学科或重点实验室</t>
   </si>
   <si>
     <r>
@@ -818,7 +802,7 @@
         <rFont val="PingFang SC"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">是</t>
+      <t>是</t>
     </r>
     <r>
       <rPr>
@@ -828,7 +812,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6</t>
+      <t>6</t>
     </r>
     <r>
       <rPr>
@@ -837,7 +821,7 @@
         <rFont val="PingFang SC"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">否</t>
+      <t>否</t>
     </r>
     <r>
       <rPr>
@@ -847,11 +831,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t>0</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">是否为省卫健委重点专科</t>
+    <t>是否为省卫健委重点专科</t>
   </si>
   <si>
     <r>
@@ -861,7 +845,7 @@
         <rFont val="PingFang SC"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">是</t>
+      <t>是</t>
     </r>
     <r>
       <rPr>
@@ -871,7 +855,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5</t>
+      <t>5</t>
     </r>
     <r>
       <rPr>
@@ -880,7 +864,7 @@
         <rFont val="PingFang SC"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">否</t>
+      <t>否</t>
     </r>
     <r>
       <rPr>
@@ -890,14 +874,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t>0</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">是否为省中医药局重点专科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是否为地级市教育局或科技局重点学科或实验室</t>
+    <t>是否为省中医药局重点专科</t>
+  </si>
+  <si>
+    <t>是否为地级市教育局或科技局重点学科或实验室</t>
   </si>
   <si>
     <r>
@@ -907,7 +891,7 @@
         <rFont val="PingFang SC"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">是</t>
+      <t>是</t>
     </r>
     <r>
       <rPr>
@@ -917,7 +901,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4</t>
+      <t>4</t>
     </r>
     <r>
       <rPr>
@@ -926,7 +910,7 @@
         <rFont val="PingFang SC"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">否</t>
+      <t>否</t>
     </r>
     <r>
       <rPr>
@@ -936,11 +920,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t>0</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">是否为地级卫健委重点专科</t>
+    <t>是否为地级卫健委重点专科</t>
   </si>
   <si>
     <r>
@@ -950,7 +934,7 @@
         <rFont val="PingFang SC"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">是</t>
+      <t>是</t>
     </r>
     <r>
       <rPr>
@@ -960,7 +944,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3</t>
+      <t>3</t>
     </r>
     <r>
       <rPr>
@@ -969,7 +953,7 @@
         <rFont val="PingFang SC"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">否</t>
+      <t>否</t>
     </r>
     <r>
       <rPr>
@@ -979,14 +963,14 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t>0</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">是否为地级中医药局重点专科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是否为县级市教育局或科技局重点学科或实验室</t>
+    <t>是否为地级中医药局重点专科</t>
+  </si>
+  <si>
+    <t>是否为县级市教育局或科技局重点学科或实验室</t>
   </si>
   <si>
     <r>
@@ -996,7 +980,7 @@
         <rFont val="PingFang SC"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">是</t>
+      <t>是</t>
     </r>
     <r>
       <rPr>
@@ -1006,7 +990,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2</t>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -1015,7 +999,7 @@
         <rFont val="PingFang SC"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">否</t>
+      <t>否</t>
     </r>
     <r>
       <rPr>
@@ -1025,11 +1009,11 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t>0</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">是否为县级卫健委重点专科</t>
+    <t>是否为县级卫健委重点专科</t>
   </si>
   <si>
     <r>
@@ -1039,7 +1023,7 @@
         <rFont val="PingFang SC"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">是</t>
+      <t>是</t>
     </r>
     <r>
       <rPr>
@@ -1049,7 +1033,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1</t>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -1058,7 +1042,7 @@
         <rFont val="PingFang SC"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">否</t>
+      <t>否</t>
     </r>
     <r>
       <rPr>
@@ -1068,99 +1052,109 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">0</t>
+      <t>0</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">是否为县级中医药局重点专科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">选项</t>
-  </si>
-  <si>
-    <t xml:space="preserve">普外科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">心胸外科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">泌尿外科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神经外科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">妇产科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">儿外科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">儿内科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">内分泌科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">老年医学科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">神经内科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">心血管内科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">呼吸内科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">消化内科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">肾内科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">重症医学科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">感染科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">肝病科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">康复医学科</t>
+    <t>是否为县级中医药局重点专科</t>
+  </si>
+  <si>
+    <t>选项</t>
+  </si>
+  <si>
+    <t>普外科</t>
+  </si>
+  <si>
+    <t>心胸外科</t>
+  </si>
+  <si>
+    <t>泌尿外科</t>
+  </si>
+  <si>
+    <t>神经外科</t>
+  </si>
+  <si>
+    <t>妇产科</t>
+  </si>
+  <si>
+    <t>儿外科</t>
+  </si>
+  <si>
+    <t>儿内科</t>
+  </si>
+  <si>
+    <t>内分泌科</t>
+  </si>
+  <si>
+    <t>老年医学科</t>
+  </si>
+  <si>
+    <t>神经内科</t>
+  </si>
+  <si>
+    <t>心血管内科</t>
+  </si>
+  <si>
+    <t>呼吸内科</t>
+  </si>
+  <si>
+    <t>消化内科</t>
+  </si>
+  <si>
+    <t>肾内科</t>
+  </si>
+  <si>
+    <t>重症医学科</t>
+  </si>
+  <si>
+    <t>感染科</t>
+  </si>
+  <si>
+    <t>肝病科</t>
+  </si>
+  <si>
+    <t>康复医学科</t>
+  </si>
+  <si>
+    <t>医院医学教育专职管理人员数与医院教育培训学员数之比</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>住院手术患者围手术期中医治疗比例</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>对口支援医院进修人员并返回原医院人员占比</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>医联体内医院进修人员并返回原医院人员占比</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他医院进修人员并返回原医院人员占比</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>无标准</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>理法方药使用一致的出院患者比例</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1175,6 +1169,12 @@
       <name val="PingFang SC"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1185,7 +1185,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1193,74 +1193,340 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1268,67 +1534,60 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:2" ht="16">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:2" ht="16">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:2" ht="16">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:2" ht="16">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>0.3</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="9"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="3" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:3" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1339,143 +1598,143 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:3" ht="16">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2">
         <v>0.2</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:3" ht="16">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3">
         <v>0.1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:3" ht="16">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4">
         <v>0.15</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:3" ht="16">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5">
         <v>0.2</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:3" ht="16">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6">
         <v>0.3</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:3" ht="16">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7">
         <v>0.3</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:3" ht="16">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8">
         <v>0.3</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:3" ht="16">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9">
         <v>0.4</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:3" ht="16">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="0" t="n">
+      <c r="B10">
         <v>0.5</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:3" ht="16">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11">
         <v>0.5</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:3" ht="16">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>0.3</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:3" ht="16">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13">
         <v>0.4</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:3" ht="16">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14">
         <v>0.3</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1483,37 +1742,31 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:J1048576"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A98" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C101" activeCellId="0" sqref="C101"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="15.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="0" width="7"/>
+    <col min="1" max="1" width="54.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" customWidth="1"/>
+    <col min="7" max="7" width="24" customWidth="1"/>
+    <col min="8" max="10" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1545,17 +1798,17 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:10" ht="16">
+      <c r="A2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>0.618</v>
+      <c r="B2">
+        <v>0.61799999999999999</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="1">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1574,17 +1827,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:10" ht="16">
+      <c r="A3" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>0.382</v>
+      <c r="B3">
+        <v>0.38200000000000001</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="1">
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1606,14 +1859,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:10" ht="16">
+      <c r="A4" t="s">
         <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="1">
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1635,14 +1888,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:10" ht="16">
+      <c r="A5" t="s">
         <v>37</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="1">
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1664,14 +1917,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:10" ht="16">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="1">
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -1693,14 +1946,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:10" ht="16">
       <c r="A7" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="1">
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1722,14 +1975,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:10" ht="16">
       <c r="A8" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1751,14 +2004,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:10" ht="16">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="1">
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1780,14 +2033,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:10" ht="16">
       <c r="A10" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="1">
         <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1809,14 +2062,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:10" ht="16">
       <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="1" t="n">
+      <c r="D11" s="1">
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -1838,14 +2091,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:10" ht="16">
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -1867,14 +2120,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:10" ht="16">
       <c r="A13" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="D13" s="1">
         <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -1896,14 +2149,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:10" ht="16">
       <c r="A14" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="D14" s="1">
         <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
@@ -1925,14 +2178,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:10" ht="16">
       <c r="A15" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="1" t="n">
+      <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -1954,14 +2207,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:10" ht="16">
       <c r="A16" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="1" t="n">
+      <c r="D16" s="1">
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -1983,14 +2236,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:10" ht="16">
       <c r="A17" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -2012,14 +2265,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:10" ht="16">
       <c r="A18" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="1" t="n">
+      <c r="D18" s="1">
         <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -2041,14 +2294,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:10" ht="16">
       <c r="A19" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="D19" s="1">
         <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
@@ -2070,14 +2323,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:10" ht="16">
       <c r="A20" s="1" t="s">
-        <v>66</v>
+        <v>197</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="D20" s="1">
         <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
@@ -2099,14 +2352,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:10" ht="16">
       <c r="A21" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="1" t="n">
+      <c r="D21" s="1">
         <v>3</v>
       </c>
       <c r="E21" s="1" t="s">
@@ -2128,14 +2381,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:10" ht="16">
       <c r="A22" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="1" t="n">
+      <c r="D22" s="1">
         <v>3</v>
       </c>
       <c r="E22" s="1" t="s">
@@ -2157,14 +2410,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:10" ht="16">
       <c r="A23" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="1" t="n">
+      <c r="D23" s="1">
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
@@ -2186,14 +2439,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:10" ht="16">
       <c r="A24" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="1" t="n">
+      <c r="D24" s="1">
         <v>3</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -2215,14 +2468,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:10" ht="16">
       <c r="A25" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="1" t="n">
+      <c r="D25" s="1">
         <v>3</v>
       </c>
       <c r="E25" s="1" t="s">
@@ -2244,14 +2497,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:10" ht="16">
       <c r="A26" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="1" t="n">
+      <c r="D26" s="1">
         <v>3</v>
       </c>
       <c r="E26" s="1" t="s">
@@ -2273,14 +2526,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:10" ht="16">
       <c r="A27" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="1" t="n">
+      <c r="D27" s="1">
         <v>3</v>
       </c>
       <c r="E27" s="1" t="s">
@@ -2302,14 +2555,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:10" ht="16">
       <c r="A28" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="1" t="n">
+      <c r="D28" s="1">
         <v>3</v>
       </c>
       <c r="E28" s="1" t="s">
@@ -2331,14 +2584,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:10" ht="16">
       <c r="A29" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="1" t="n">
+      <c r="D29" s="1">
         <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
@@ -2360,21 +2613,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:10" ht="16">
       <c r="A30" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="1" t="n">
+      <c r="D30" s="1">
         <v>3</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>52</v>
@@ -2389,21 +2642,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:10" ht="16">
       <c r="A31" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="1" t="n">
+      <c r="D31" s="1">
         <v>3</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>29</v>
@@ -2418,21 +2671,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:10" ht="16">
       <c r="A32" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="1" t="n">
+      <c r="D32" s="1">
         <v>3</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>29</v>
@@ -2447,18 +2700,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:10" ht="16">
       <c r="A33" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="1" t="n">
+      <c r="D33" s="1">
         <v>3</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>39</v>
@@ -2476,21 +2729,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:10" ht="16">
       <c r="A34" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="1" t="n">
+      <c r="D34" s="1">
         <v>3</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>29</v>
@@ -2505,21 +2758,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:10" ht="16">
       <c r="A35" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="1" t="n">
+      <c r="D35" s="1">
         <v>3</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>29</v>
@@ -2534,17 +2787,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:10" ht="16">
       <c r="A36" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>0.382</v>
+        <v>86</v>
+      </c>
+      <c r="B36">
+        <v>0.38200000000000001</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="1" t="n">
+      <c r="D36" s="1">
         <v>3</v>
       </c>
       <c r="E36" s="1" t="s">
@@ -2566,17 +2819,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:10" ht="16">
       <c r="A37" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>0.618</v>
+        <v>87</v>
+      </c>
+      <c r="B37">
+        <v>0.61799999999999999</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="1" t="n">
+      <c r="D37" s="1">
         <v>3</v>
       </c>
       <c r="E37" s="1" t="s">
@@ -2598,14 +2851,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:10" ht="16">
       <c r="A38" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="1" t="n">
+      <c r="D38" s="1">
         <v>3</v>
       </c>
       <c r="E38" s="1" t="s">
@@ -2627,14 +2880,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:10" ht="16">
       <c r="A39" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="1" t="n">
+      <c r="D39" s="1">
         <v>3</v>
       </c>
       <c r="E39" s="1" t="s">
@@ -2656,14 +2909,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:10" ht="16">
       <c r="A40" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="1" t="n">
+      <c r="D40" s="1">
         <v>1</v>
       </c>
       <c r="E40" s="1" t="s">
@@ -2673,33 +2926,33 @@
         <v>39</v>
       </c>
       <c r="G40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="16">
+      <c r="A41" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="1" t="n">
+      <c r="D41" s="1">
         <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>29</v>
@@ -2714,14 +2967,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:10" ht="16">
       <c r="A42" s="1" t="s">
-        <v>94</v>
+        <v>198</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="1" t="n">
+      <c r="D42" s="1">
         <v>1</v>
       </c>
       <c r="E42" s="1" t="s">
@@ -2743,14 +2996,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:10" ht="16">
       <c r="A43" s="1" t="s">
-        <v>95</v>
+        <v>199</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="1" t="n">
+      <c r="D43" s="1">
         <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
@@ -2772,14 +3025,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:10" ht="16">
       <c r="A44" s="1" t="s">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="1" t="n">
+      <c r="D44" s="1">
         <v>1</v>
       </c>
       <c r="E44" s="1" t="s">
@@ -2801,14 +3054,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:10" ht="16">
       <c r="A45" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="1" t="n">
+      <c r="D45" s="1">
         <v>3</v>
       </c>
       <c r="E45" s="1" t="s">
@@ -2830,19 +3083,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:10" ht="16">
       <c r="A46" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E46" s="1"/>
+      <c r="D46" s="1">
+        <v>3</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>201</v>
+      </c>
       <c r="F46" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>29</v>
@@ -2857,14 +3112,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:10" ht="16">
       <c r="A47" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="1" t="n">
+      <c r="D47" s="1">
         <v>1</v>
       </c>
       <c r="E47" s="1" t="s">
@@ -2886,14 +3141,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:10" ht="16">
       <c r="A48" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="1" t="n">
+      <c r="D48" s="1">
         <v>1</v>
       </c>
       <c r="E48" s="1" t="s">
@@ -2903,7 +3158,7 @@
         <v>39</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>50</v>
@@ -2915,14 +3170,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:10" ht="16">
       <c r="A49" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="1" t="n">
+      <c r="D49" s="1">
         <v>1</v>
       </c>
       <c r="E49" s="1" t="s">
@@ -2932,7 +3187,7 @@
         <v>39</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>42</v>
@@ -2944,14 +3199,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:10" ht="16">
       <c r="A50" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="1" t="n">
+      <c r="D50" s="1">
         <v>3</v>
       </c>
       <c r="E50" s="1" t="s">
@@ -2973,21 +3228,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:10" ht="16">
       <c r="A51" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="1" t="n">
+      <c r="D51" s="1">
         <v>3</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>29</v>
@@ -3002,21 +3257,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:10" ht="16">
       <c r="A52" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="1" t="n">
+      <c r="D52" s="1">
         <v>3</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>40</v>
@@ -3031,18 +3286,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:10" ht="16">
       <c r="A53" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D53" s="1" t="n">
+      <c r="D53" s="1">
         <v>3</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>39</v>
@@ -3060,14 +3315,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:10" ht="16">
       <c r="A54" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="1" t="n">
+      <c r="D54" s="1">
         <v>3</v>
       </c>
       <c r="E54" s="1" t="s">
@@ -3089,21 +3344,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:10" ht="16">
       <c r="A55" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="1" t="n">
+      <c r="D55" s="1">
         <v>3</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F55" s="0" t="s">
-        <v>112</v>
+      <c r="F55" t="s">
+        <v>108</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>49</v>
@@ -3118,21 +3373,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:10" ht="16">
       <c r="A56" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="1" t="n">
+      <c r="D56" s="1">
         <v>3</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>29</v>
@@ -3147,21 +3402,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:10" ht="16">
       <c r="A57" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="1" t="n">
+      <c r="D57" s="1">
         <v>3</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>29</v>
@@ -3176,14 +3431,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:10" ht="16">
       <c r="A58" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="1" t="n">
+      <c r="D58" s="1">
         <v>3</v>
       </c>
       <c r="E58" s="1" t="s">
@@ -3205,14 +3460,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:10" ht="16">
       <c r="A59" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="1" t="n">
+      <c r="D59" s="1">
         <v>3</v>
       </c>
       <c r="E59" s="1" t="s">
@@ -3234,14 +3489,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:10" ht="16">
       <c r="A60" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D60" s="1" t="n">
+      <c r="D60" s="1">
         <v>3</v>
       </c>
       <c r="E60" s="1" t="s">
@@ -3263,14 +3518,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:10" ht="16">
       <c r="A61" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="1" t="n">
+      <c r="D61" s="1">
         <v>3</v>
       </c>
       <c r="E61" s="1" t="s">
@@ -3292,21 +3547,21 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:10" ht="16">
       <c r="A62" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D62" s="1" t="n">
+      <c r="D62" s="1">
         <v>3</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>29</v>
@@ -3321,21 +3576,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:10" ht="16">
       <c r="A63" s="1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="1" t="n">
+      <c r="D63" s="1">
         <v>3</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>29</v>
@@ -3350,21 +3605,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:10" ht="16">
       <c r="A64" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="1" t="n">
+      <c r="D64" s="1">
         <v>3</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>49</v>
@@ -3379,21 +3634,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:10" ht="16">
       <c r="A65" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="1" t="n">
+      <c r="D65" s="1">
         <v>3</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>49</v>
@@ -3408,21 +3663,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:10" ht="16">
       <c r="A66" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D66" s="1" t="n">
+      <c r="D66" s="1">
         <v>3</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>49</v>
@@ -3437,21 +3692,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:10" ht="16">
       <c r="A67" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D67" s="1" t="n">
+      <c r="D67" s="1">
         <v>3</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G67" s="1" t="s">
         <v>49</v>
@@ -3466,21 +3721,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:10" ht="16">
       <c r="A68" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="1" t="n">
+      <c r="D68" s="1">
         <v>3</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>49</v>
@@ -3495,21 +3750,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:10" ht="16">
       <c r="A69" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D69" s="1" t="n">
+      <c r="D69" s="1">
         <v>3</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>49</v>
@@ -3524,14 +3779,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:10" ht="16">
       <c r="A70" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D70" s="1" t="n">
+      <c r="D70" s="1">
         <v>1</v>
       </c>
       <c r="E70" s="1" t="s">
@@ -3553,14 +3808,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:10" ht="16">
       <c r="A71" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D71" s="1" t="n">
+      <c r="D71" s="1">
         <v>1</v>
       </c>
       <c r="E71" s="1" t="s">
@@ -3582,14 +3837,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:10" ht="16">
       <c r="A72" s="1" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="1" t="n">
+      <c r="D72" s="1">
         <v>3</v>
       </c>
       <c r="E72" s="1" t="s">
@@ -3611,24 +3866,24 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:10" ht="16">
       <c r="A73" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D73" s="1" t="n">
+      <c r="D73" s="1">
         <v>1</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>41</v>
@@ -3640,14 +3895,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:10" ht="16">
       <c r="A74" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D74" s="1" t="n">
+      <c r="D74" s="1">
         <v>1</v>
       </c>
       <c r="E74" s="1" t="s">
@@ -3669,14 +3924,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:10" ht="16">
       <c r="A75" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D75" s="1" t="n">
+      <c r="D75" s="1">
         <v>1</v>
       </c>
       <c r="E75" s="1" t="s">
@@ -3686,7 +3941,7 @@
         <v>39</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>42</v>
@@ -3698,14 +3953,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:10" ht="16">
       <c r="A76" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D76" s="1" t="n">
+      <c r="D76" s="1">
         <v>1</v>
       </c>
       <c r="E76" s="1" t="s">
@@ -3715,7 +3970,7 @@
         <v>39</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>42</v>
@@ -3727,14 +3982,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:10" ht="16">
       <c r="A77" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D77" s="1" t="n">
+      <c r="D77" s="1">
         <v>3</v>
       </c>
       <c r="E77" s="1" t="s">
@@ -3756,18 +4011,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:10" ht="16">
       <c r="A78" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D78" s="1" t="n">
+      <c r="D78" s="1">
         <v>1</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>39</v>
@@ -3785,14 +4040,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:10" ht="16">
       <c r="A79" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="1" t="n">
+      <c r="D79" s="1">
         <v>1</v>
       </c>
       <c r="E79" s="1" t="s">
@@ -3802,7 +4057,7 @@
         <v>39</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>41</v>
@@ -3814,14 +4069,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:10" ht="16">
       <c r="A80" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="1" t="n">
+      <c r="D80" s="1">
         <v>3</v>
       </c>
       <c r="E80" s="1" t="s">
@@ -3840,18 +4095,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:10" ht="16">
       <c r="A81" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D81" s="1" t="n">
+      <c r="D81" s="1">
         <v>3</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>39</v>
@@ -3869,18 +4124,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:10" ht="16">
       <c r="A82" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="1" t="n">
+      <c r="D82" s="1">
         <v>3</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>39</v>
@@ -3898,14 +4153,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:10" ht="16">
       <c r="A83" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D83" s="1" t="n">
+      <c r="D83" s="1">
         <v>1</v>
       </c>
       <c r="E83" s="1" t="s">
@@ -3927,14 +4182,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:10" ht="16">
       <c r="A84" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D84" s="1" t="n">
+      <c r="D84" s="1">
         <v>1</v>
       </c>
       <c r="E84" s="1" t="s">
@@ -3956,14 +4211,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:10" ht="16">
       <c r="A85" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D85" s="1" t="n">
+      <c r="D85" s="1">
         <v>3</v>
       </c>
       <c r="E85" s="1" t="s">
@@ -3985,14 +4240,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:10" ht="16">
       <c r="A86" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D86" s="1" t="n">
+      <c r="D86" s="1">
         <v>3</v>
       </c>
       <c r="E86" s="1" t="s">
@@ -4014,14 +4269,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:10" ht="16">
       <c r="A87" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D87" s="1" t="n">
+      <c r="D87" s="1">
         <v>3</v>
       </c>
       <c r="E87" s="1" t="s">
@@ -4043,14 +4298,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:10" ht="16">
       <c r="A88" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D88" s="1" t="n">
+      <c r="D88" s="1">
         <v>3</v>
       </c>
       <c r="E88" s="1" t="s">
@@ -4072,14 +4327,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:10" ht="16">
       <c r="A89" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="1" t="n">
+      <c r="D89" s="1">
         <v>3</v>
       </c>
       <c r="E89" s="1" t="s">
@@ -4101,14 +4356,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:10" ht="16">
       <c r="A90" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D90" s="1" t="n">
+      <c r="D90" s="1">
         <v>1</v>
       </c>
       <c r="E90" s="1" t="s">
@@ -4130,21 +4385,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:10" ht="16">
       <c r="A91" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D91" s="1" t="n">
+      <c r="D91" s="1">
         <v>1</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>49</v>
@@ -4159,14 +4414,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:10" ht="16">
       <c r="A92" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D92" s="1" t="n">
+      <c r="D92" s="1">
         <v>3</v>
       </c>
       <c r="E92" s="1" t="s">
@@ -4188,14 +4443,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:10" ht="16">
       <c r="A93" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D93" s="1" t="n">
+      <c r="D93" s="1">
         <v>3</v>
       </c>
       <c r="E93" s="1" t="s">
@@ -4217,14 +4472,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:10" ht="16">
       <c r="A94" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D94" s="1" t="n">
+      <c r="D94" s="1">
         <v>3</v>
       </c>
       <c r="E94" s="1" t="s">
@@ -4246,18 +4501,18 @@
         <v>42</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:10" ht="16">
       <c r="A95" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D95" s="1" t="n">
+      <c r="D95" s="1">
         <v>3</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>39</v>
@@ -4275,14 +4530,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:10" ht="16">
       <c r="A96" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D96" s="1" t="n">
+      <c r="D96" s="1">
         <v>1</v>
       </c>
       <c r="E96" s="1" t="s">
@@ -4304,14 +4559,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:10" ht="16">
       <c r="A97" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D97" s="0" t="n">
+      <c r="D97">
         <v>1</v>
       </c>
       <c r="E97" s="1" t="s">
@@ -4333,21 +4588,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:10" ht="16">
       <c r="A98" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D98" s="0" t="n">
+      <c r="D98">
         <v>1</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>49</v>
@@ -4362,21 +4617,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:10" ht="16">
       <c r="A99" s="1" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D99" s="0" t="n">
+      <c r="D99">
         <v>1</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>49</v>
@@ -4391,21 +4646,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:10" ht="16">
       <c r="A100" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D100" s="0" t="n">
+      <c r="D100">
         <v>1</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>47</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>49</v>
@@ -4420,24 +4675,24 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:10" ht="16">
       <c r="A101" s="2" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D101" s="0" t="n">
+      <c r="D101">
         <v>2</v>
       </c>
       <c r="E101" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G101" s="2" t="s">
         <v>29</v>
@@ -4452,24 +4707,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:10" ht="16">
       <c r="A102" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D102" s="0" t="n">
+      <c r="D102">
         <v>2</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>29</v>
@@ -4484,24 +4739,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:10" ht="16">
       <c r="A103" s="2" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D103" s="0" t="n">
+      <c r="D103">
         <v>2</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G103" s="2" t="s">
         <v>29</v>
@@ -4516,24 +4771,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:10" ht="16">
       <c r="A104" s="2" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D104" s="0" t="n">
+      <c r="D104">
         <v>2</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G104" s="2" t="s">
         <v>29</v>
@@ -4548,24 +4803,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:10" ht="16">
       <c r="A105" s="2" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D105" s="0" t="n">
+      <c r="D105">
         <v>2</v>
       </c>
       <c r="E105" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G105" s="2" t="s">
         <v>29</v>
@@ -4580,24 +4835,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:10" ht="16">
       <c r="A106" s="2" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D106" s="0" t="n">
+      <c r="D106">
         <v>2</v>
       </c>
       <c r="E106" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G106" s="2" t="s">
         <v>29</v>
@@ -4612,24 +4867,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:10" ht="16">
       <c r="A107" s="2" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D107" s="0" t="n">
+      <c r="D107">
         <v>2</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G107" s="2" t="s">
         <v>29</v>
@@ -4644,24 +4899,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:10" ht="16">
       <c r="A108" s="2" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D108" s="0" t="n">
+      <c r="D108">
         <v>2</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G108" s="2" t="s">
         <v>29</v>
@@ -4676,24 +4931,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:10" ht="16">
       <c r="A109" s="2" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D109" s="0" t="n">
+      <c r="D109">
         <v>2</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G109" s="2" t="s">
         <v>29</v>
@@ -4708,24 +4963,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:10" ht="16">
       <c r="A110" s="2" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D110" s="0" t="n">
+      <c r="D110">
         <v>2</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G110" s="2" t="s">
         <v>29</v>
@@ -4740,24 +4995,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:10" ht="16">
       <c r="A111" s="2" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D111" s="0" t="n">
+      <c r="D111">
         <v>2</v>
       </c>
       <c r="E111" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G111" s="2" t="s">
         <v>29</v>
@@ -4772,24 +5027,24 @@
         <v>30</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:10" ht="16">
       <c r="A112" s="2" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D112" s="0" t="n">
+      <c r="D112">
         <v>2</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="G112" s="2" t="s">
         <v>29</v>
@@ -4804,200 +5059,184 @@
         <v>30</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.5"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.13"/>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:2" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16">
+      <c r="A2" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16">
+      <c r="A3" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16">
+      <c r="A4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="16">
+      <c r="A5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16">
+      <c r="A6" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16">
+      <c r="A7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16">
+      <c r="A8" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16">
+      <c r="A9" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16">
+      <c r="A10" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="B10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16">
+      <c r="A11" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="B11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16">
+      <c r="A12" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="B12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16">
+      <c r="A13" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="B13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16">
+      <c r="A14" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="B14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="16">
+      <c r="A15" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+      <c r="B15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16">
+      <c r="A16" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16">
+      <c r="A17" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+      <c r="B17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="16">
+      <c r="A18" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+      <c r="B18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16">
+      <c r="A19" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>

--- a/cases/goodhostpital2021/项目设置.xlsx
+++ b/cases/goodhostpital2021/项目设置.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="一级指标设置" sheetId="1" state="visible" r:id="rId2"/>
@@ -1155,7 +1155,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1184,12 +1184,6 @@
       <name val="PingFang SC"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="PingFang SC"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1234,16 +1228,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1270,7 +1260,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9"/>
@@ -1334,11 +1324,11 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="9"/>
@@ -1371,7 +1361,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
@@ -1516,17 +1506,17 @@
   </sheetPr>
   <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="54.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="54.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="8" style="0" width="7"/>
   </cols>
@@ -1562,7 +1552,7 @@
       <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4849,7 +4839,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.16"/>

--- a/cases/goodhostpital2021/项目设置.xlsx
+++ b/cases/goodhostpital2021/项目设置.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="一级指标设置" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1075" uniqueCount="206">
   <si>
     <t xml:space="preserve">数据名</t>
   </si>
@@ -131,6 +131,9 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">通</t>
+  </si>
+  <si>
     <t xml:space="preserve">高优</t>
   </si>
   <si>
@@ -323,6 +326,9 @@
     <t xml:space="preserve">下转患者人次数</t>
   </si>
   <si>
+    <t xml:space="preserve">院</t>
+  </si>
+  <si>
     <t xml:space="preserve">逐步提高</t>
   </si>
   <si>
@@ -759,6 +765,9 @@
       </rPr>
       <t xml:space="preserve">0</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">科</t>
   </si>
   <si>
     <t xml:space="preserve">分</t>
@@ -1155,7 +1164,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1184,6 +1193,12 @@
       <name val="PingFang SC"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1228,12 +1243,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1260,7 +1279,7 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9"/>
@@ -1324,11 +1343,11 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="9"/>
@@ -1506,13 +1525,13 @@
   </sheetPr>
   <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.484375" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="54.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="9"/>
@@ -1556,7 +1575,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>28</v>
       </c>
@@ -1566,28 +1585,28 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>3</v>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.382</v>
@@ -1595,959 +1614,959 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <v>3</v>
+      <c r="D3" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <v>3</v>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <v>3</v>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="n">
-        <v>3</v>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="1" t="n">
-        <v>1</v>
+      <c r="D7" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1" t="n">
-        <v>1</v>
+      <c r="D8" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="1" t="n">
-        <v>3</v>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="1" t="n">
-        <v>3</v>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="1" t="n">
-        <v>3</v>
+      <c r="D11" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="1" t="n">
-        <v>1</v>
+      <c r="D12" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="1" t="n">
-        <v>3</v>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="1" t="n">
-        <v>3</v>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="1" t="n">
-        <v>1</v>
+      <c r="D15" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="1" t="n">
-        <v>3</v>
+      <c r="D16" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="1" t="n">
-        <v>1</v>
+      <c r="D17" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="1" t="n">
-        <v>3</v>
+      <c r="D18" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="1" t="n">
-        <v>3</v>
+      <c r="D19" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="1" t="n">
-        <v>3</v>
+      <c r="D20" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="1" t="n">
-        <v>3</v>
+      <c r="D21" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="1" t="n">
-        <v>3</v>
+      <c r="D22" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="1" t="n">
-        <v>1</v>
+      <c r="D23" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="1" t="n">
-        <v>3</v>
+      <c r="D24" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="1" t="n">
-        <v>3</v>
+      <c r="D25" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="1" t="n">
-        <v>3</v>
+      <c r="D26" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="1" t="n">
-        <v>3</v>
+      <c r="D27" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="1" t="n">
-        <v>3</v>
+      <c r="D28" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="1" t="n">
-        <v>3</v>
+      <c r="D29" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D30" s="1" t="n">
-        <v>3</v>
+      <c r="D30" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="1" t="n">
-        <v>3</v>
+      <c r="D31" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="1" t="n">
-        <v>3</v>
+      <c r="D32" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="1" t="n">
-        <v>3</v>
+      <c r="D33" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="1" t="n">
-        <v>3</v>
+      <c r="D34" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="1" t="n">
-        <v>3</v>
+      <c r="D35" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0.382</v>
@@ -2555,31 +2574,31 @@
       <c r="C36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="1" t="n">
-        <v>3</v>
+      <c r="D36" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>0.618</v>
@@ -2587,2234 +2606,2234 @@
       <c r="C37" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="1" t="n">
-        <v>3</v>
+      <c r="D37" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="1" t="n">
-        <v>3</v>
+      <c r="D38" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D39" s="1" t="n">
-        <v>3</v>
+      <c r="D39" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="1" t="n">
-        <v>1</v>
+      <c r="D40" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D41" s="1" t="n">
-        <v>1</v>
+      <c r="D41" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="1" t="n">
-        <v>1</v>
+      <c r="D42" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D43" s="1" t="n">
-        <v>1</v>
+      <c r="D43" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D44" s="1" t="n">
-        <v>1</v>
+      <c r="D44" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="1" t="n">
-        <v>3</v>
+      <c r="D45" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="1" t="n">
-        <v>3</v>
+      <c r="D46" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="1" t="n">
-        <v>1</v>
+      <c r="D47" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="1" t="n">
-        <v>1</v>
+      <c r="D48" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="1" t="n">
-        <v>1</v>
+      <c r="D49" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D50" s="1" t="n">
-        <v>3</v>
+      <c r="D50" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="1" t="n">
-        <v>3</v>
+      <c r="D51" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="1" t="n">
-        <v>3</v>
+      <c r="D52" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D53" s="1" t="n">
-        <v>3</v>
+      <c r="D53" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D54" s="1" t="n">
-        <v>3</v>
+      <c r="D54" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="1" t="n">
-        <v>3</v>
+      <c r="D55" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="1" t="n">
-        <v>3</v>
+      <c r="D56" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="1" t="n">
-        <v>3</v>
+      <c r="D57" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D58" s="1" t="n">
-        <v>3</v>
+      <c r="D58" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="1" t="n">
-        <v>3</v>
+      <c r="D59" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D60" s="1" t="n">
-        <v>3</v>
+      <c r="D60" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="1" t="n">
-        <v>3</v>
+      <c r="D61" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D62" s="1" t="n">
-        <v>3</v>
+      <c r="D62" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="1" t="n">
-        <v>3</v>
+      <c r="D63" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="1" t="n">
-        <v>3</v>
+      <c r="D64" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="1" t="n">
-        <v>3</v>
+      <c r="D65" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D66" s="1" t="n">
-        <v>3</v>
+      <c r="D66" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D67" s="1" t="n">
-        <v>3</v>
+      <c r="D67" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="1" t="n">
-        <v>3</v>
+      <c r="D68" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D69" s="1" t="n">
-        <v>3</v>
+      <c r="D69" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D70" s="1" t="n">
-        <v>1</v>
+      <c r="D70" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D71" s="1" t="n">
-        <v>1</v>
+      <c r="D71" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="1" t="n">
-        <v>3</v>
+      <c r="D72" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D73" s="1" t="n">
-        <v>1</v>
+      <c r="D73" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D74" s="1" t="n">
-        <v>1</v>
+      <c r="D74" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D75" s="1" t="n">
-        <v>1</v>
+      <c r="D75" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D76" s="1" t="n">
-        <v>1</v>
+      <c r="D76" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D77" s="1" t="n">
-        <v>3</v>
+      <c r="D77" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D78" s="1" t="n">
-        <v>1</v>
+      <c r="D78" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="1" t="n">
-        <v>1</v>
+      <c r="D79" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="1" t="n">
-        <v>3</v>
+      <c r="D80" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D81" s="1" t="n">
-        <v>3</v>
+      <c r="D81" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="1" t="n">
-        <v>3</v>
+      <c r="D82" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D83" s="1" t="n">
-        <v>1</v>
+      <c r="D83" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D84" s="1" t="n">
-        <v>1</v>
+      <c r="D84" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D85" s="1" t="n">
-        <v>3</v>
+      <c r="D85" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D86" s="1" t="n">
-        <v>3</v>
+      <c r="D86" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D87" s="1" t="n">
-        <v>3</v>
+      <c r="D87" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D88" s="1" t="n">
-        <v>3</v>
+      <c r="D88" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="1" t="n">
-        <v>3</v>
+      <c r="D89" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D90" s="1" t="n">
-        <v>1</v>
+      <c r="D90" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D91" s="1" t="n">
-        <v>1</v>
+      <c r="D91" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D92" s="1" t="n">
-        <v>3</v>
+      <c r="D92" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D93" s="1" t="n">
-        <v>3</v>
+      <c r="D93" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D94" s="1" t="n">
-        <v>3</v>
+      <c r="D94" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D95" s="1" t="n">
-        <v>3</v>
+      <c r="D95" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D96" s="1" t="n">
-        <v>1</v>
+      <c r="D96" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D97" s="0" t="n">
-        <v>1</v>
+      <c r="D97" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D98" s="0" t="n">
-        <v>1</v>
+      <c r="D98" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D99" s="0" t="n">
-        <v>1</v>
+      <c r="D99" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D100" s="0" t="n">
-        <v>1</v>
+      <c r="D100" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D101" s="0" t="n">
-        <v>2</v>
+      <c r="D101" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D102" s="0" t="n">
-        <v>2</v>
+      <c r="D102" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D103" s="0" t="n">
-        <v>2</v>
+      <c r="D103" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D104" s="0" t="n">
-        <v>2</v>
+      <c r="D104" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D105" s="0" t="n">
-        <v>2</v>
+      <c r="D105" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D106" s="0" t="n">
-        <v>2</v>
+      <c r="D106" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D107" s="0" t="n">
-        <v>2</v>
+      <c r="D107" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D108" s="0" t="n">
-        <v>2</v>
+      <c r="D108" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D109" s="0" t="n">
-        <v>2</v>
+      <c r="D109" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D110" s="0" t="n">
-        <v>2</v>
+      <c r="D110" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D111" s="0" t="n">
-        <v>2</v>
+      <c r="D111" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D112" s="0" t="n">
-        <v>2</v>
+      <c r="D112" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -4839,7 +4858,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.16"/>
@@ -4850,12 +4869,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>3</v>
@@ -4863,7 +4882,7 @@
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>3</v>
@@ -4871,7 +4890,7 @@
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>3</v>
@@ -4879,7 +4898,7 @@
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>3</v>
@@ -4887,7 +4906,7 @@
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>3</v>
@@ -4895,7 +4914,7 @@
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>3</v>
@@ -4903,7 +4922,7 @@
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>3</v>
@@ -4911,7 +4930,7 @@
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>3</v>
@@ -4919,7 +4938,7 @@
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>3</v>
@@ -4927,7 +4946,7 @@
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>3</v>
@@ -4935,7 +4954,7 @@
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>3</v>
@@ -4943,7 +4962,7 @@
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>3</v>
@@ -4951,7 +4970,7 @@
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>3</v>
@@ -4959,7 +4978,7 @@
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>3</v>
@@ -4967,7 +4986,7 @@
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>3</v>
@@ -4975,7 +4994,7 @@
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>3</v>
@@ -4983,7 +5002,7 @@
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>3</v>
@@ -4991,7 +5010,7 @@
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>3</v>

--- a/cases/goodhostpital2021/项目设置.xlsx
+++ b/cases/goodhostpital2021/项目设置.xlsx
@@ -112,15 +112,62 @@
     <t xml:space="preserve">指标说明</t>
   </si>
   <si>
+    <t xml:space="preserve">医院感染管理专职人员数与开放床位数比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">院</t>
+  </si>
+  <si>
+    <t xml:space="preserve">指</t>
+  </si>
+  <si>
+    <t xml:space="preserve">高优</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">比值（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1:X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">）</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">自制医院填报</t>
+  </si>
+  <si>
+    <t xml:space="preserve">审</t>
+  </si>
+  <si>
+    <t xml:space="preserve">等级评审标准细则</t>
+  </si>
+  <si>
     <t xml:space="preserve">中医医师占比</t>
   </si>
   <si>
-    <t xml:space="preserve">院</t>
-  </si>
-  <si>
-    <t xml:space="preserve">指</t>
-  </si>
-  <si>
     <t xml:space="preserve">逐步提高</t>
   </si>
   <si>
@@ -180,16 +227,144 @@
     <t xml:space="preserve">麻醉医师占比</t>
   </si>
   <si>
+    <t xml:space="preserve">出院患者三级手术占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通</t>
+  </si>
+  <si>
+    <t xml:space="preserve">数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">病案首页</t>
+  </si>
+  <si>
+    <t xml:space="preserve">出院三级手术人数占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">自制计算值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">算</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">出院患者手术占比 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">出院患者三级手术占比</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">基本药物采购金额占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">省级药品集中采购平台</t>
+  </si>
+  <si>
+    <t xml:space="preserve">考</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重点监控药品收入占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">低优</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医院填报</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每百名卫生技术人员科研成果转化金额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">元</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人才培养经费投入占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">省级室间质量评价临床检验项目参加率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">省级卫生健康委</t>
+  </si>
+  <si>
+    <t xml:space="preserve">省级室间质量评价临床检验项目合格率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">低风险组病例死亡率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">逐步降低</t>
+  </si>
+  <si>
+    <t xml:space="preserve">次均药品费用增幅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">财务年报表</t>
+  </si>
+  <si>
+    <t xml:space="preserve">次均费用增幅</t>
+  </si>
+  <si>
     <t xml:space="preserve">中医类别执业医师含执业助理医师占执业医师总数比例</t>
   </si>
   <si>
-    <t xml:space="preserve">通</t>
-  </si>
-  <si>
     <t xml:space="preserve">医护比</t>
   </si>
   <si>
-    <t xml:space="preserve">低优</t>
+    <t xml:space="preserve">医院住院医师首次参加医师资格考试通过率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">国家卫生健康委</t>
+  </si>
+  <si>
+    <t xml:space="preserve">以中医为主治疗的出院患者比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中医病案首页</t>
+  </si>
+  <si>
+    <t xml:space="preserve">出院患者中药饮片使用率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">出院患者使用中医非药物疗法比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊中药处方比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊患者中药饮片使用率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊患者使用中医非药物疗法比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊散装中药饮片和小包装中药饮片处方比例</t>
   </si>
   <si>
     <r>
@@ -200,7 +375,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">比值（</t>
+      <t xml:space="preserve">抗菌药物使用强度</t>
     </r>
     <r>
       <rPr>
@@ -210,8 +385,46 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1:X</t>
-    </r>
+      <t xml:space="preserve">DDDs</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">DDD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每百名卫生技术人员中医药科研项目经费</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每百名卫生技术人员科研项目经费</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中药收入占药品收入比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">中药饮片收入占药品收入比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">住院中医医疗服务项目收入占住院医疗收入比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">财务年报表、医院填报</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医疗机构中药制剂收入占药品收入比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊中医医疗服务项目收入占门诊医疗收入比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人员支出占业务支出比重</t>
+  </si>
+  <si>
+    <t xml:space="preserve">资产负债率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">万元收入能耗占比</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -220,43 +433,365 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">）</t>
-    </r>
+      <t xml:space="preserve">吨标煤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">万元</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">医疗服务收入占医疗收入比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">收支结余</t>
+  </si>
+  <si>
+    <t xml:space="preserve">无标准</t>
+  </si>
+  <si>
+    <t xml:space="preserve">电子病历应用功能水平分级</t>
+  </si>
+  <si>
+    <t xml:space="preserve">级别</t>
+  </si>
+  <si>
+    <t xml:space="preserve">通过国家室间质量评价的临床检验项目数</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">类切口手术部位感染率</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">手术患者并发症发生率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">住院次均药品费用增幅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">住院次均费用增幅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊次均药品费用增幅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊次均费用增幅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">出院四级手术人数占比</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">出院患者手术占比 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">出院患者四级手术比例</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">出院微创手术人数占比</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">出院患者手术占比 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">出院患者微创手术占比</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CMI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">当量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">DRGs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">组数</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">组</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CMI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">值 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">* DRGs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">组数</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">医疗服务收入三年复合增长率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医疗服务收入占全院比重</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医疗服务收入占全院医疗服务收入的比重</t>
+  </si>
+  <si>
+    <t xml:space="preserve">有效收入三年复合增长率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">有效收入三年符合增长率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">有效收入占全院比重</t>
+  </si>
+  <si>
+    <t xml:space="preserve">有效收入占全院有效收入合计的比重</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重点学科等级评分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">根据国家省市重点学科、专科得分取大弃小累计</t>
   </si>
   <si>
     <t xml:space="preserve">护理人员系统接受中医药知识和技能培训比例</t>
   </si>
   <si>
-    <t xml:space="preserve">医院填报</t>
-  </si>
-  <si>
-    <t xml:space="preserve">考</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医院感染管理专职人员数与开放床位数比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">高优</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自制医院填报</t>
-  </si>
-  <si>
-    <t xml:space="preserve">审</t>
-  </si>
-  <si>
-    <t xml:space="preserve">等级评审标准细则</t>
+    <t xml:space="preserve">对口支援医院进修人员并返回原医院人员占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医联体内医院进修人员并返回原医院人员占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">其他医院进修人员并返回原医院人员占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医院在医学人才培养方面的经费投入占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">临床带教教师和指导医师接受教育教学培训占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医院医学教育专职管理人员数与医院教育培训学员数之比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">发表教学文章数与卫生技术人员数之比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">下转患者人次数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人次</t>
+  </si>
+  <si>
+    <t xml:space="preserve">住院下转患者人次数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门急诊下转患者人次数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">住院手术患者围手术期中医治疗比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">基本药物采购品种数占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">省级招采平台</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点评中药处方占中药处方总数的比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点评处方占处方总数的比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">住院患者基本药物使用率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊患者基本药物处方占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">国家组织药品集中采购中标药品金额占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">重点监控高值医用耗材收入占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每百名卫生技术人员中医药科研成果转化金额</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每百名卫生技术人员重点专科经费投入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">每百名卫生技术人员重点学科经费投入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊患者平均预约诊疗率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">门诊患者预约后平均等待时间</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分钟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">优质护理服务病房覆盖率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">理法方药使用一致的出院患者比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医疗收入增幅</t>
   </si>
   <si>
     <t xml:space="preserve">医师人数</t>
   </si>
   <si>
-    <t xml:space="preserve">数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">无标准</t>
-  </si>
-  <si>
     <t xml:space="preserve">人</t>
   </si>
   <si>
@@ -266,57 +801,37 @@
     <t xml:space="preserve">护士人数</t>
   </si>
   <si>
-    <t xml:space="preserve">医院住院医师首次参加医师资格考试通过率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">国家卫生健康委</t>
-  </si>
-  <si>
-    <t xml:space="preserve">对口支援医院进修人员并返回原医院人员占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医联体内医院进修人员并返回原医院人员占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">其他医院进修人员并返回原医院人员占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医院在医学人才培养方面的经费投入占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">临床带教教师和指导医师接受教育教学培训占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医院医学教育专职管理人员数与医院教育培训学员数之比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">发表教学文章数与卫生技术人员数之比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出院患者三级手术占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">病案首页</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出院三级手术人数占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">自制计算值</t>
-  </si>
-  <si>
-    <t xml:space="preserve">算</t>
-  </si>
-  <si>
+    <t xml:space="preserve">出院患者四级手术比例</t>
+  </si>
+  <si>
+    <t xml:space="preserve">出院患者微创手术占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">出院患者手术占比</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CMI</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">出院患者手术占比 </t>
-    </r>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">值</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -325,7 +840,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">* </t>
+      <t xml:space="preserve">DRGs</t>
     </r>
     <r>
       <rPr>
@@ -333,36 +848,28 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">出院患者三级手术占比</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">以中医为主治疗的出院患者比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中医病案首页</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出院患者中药饮片使用率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出院患者使用中医非药物疗法比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊中药处方比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊患者中药饮片使用率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊患者使用中医非药物疗法比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊散装中药饮片和小包装中药饮片处方比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出院四级手术人数占比</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">组数</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">博士研究生导师占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">外省住院患者占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">硕士研究生导师占比</t>
+  </si>
+  <si>
+    <t xml:space="preserve">非医嘱离院率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是否为教育部或科技部重点学科或重点实验室</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分</t>
   </si>
   <si>
     <r>
@@ -371,8 +878,9 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">出院患者手术占比 </t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">是</t>
     </r>
     <r>
       <rPr>
@@ -382,7 +890,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">* </t>
+      <t xml:space="preserve">8</t>
     </r>
     <r>
       <rPr>
@@ -390,12 +898,23 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">出院患者四级手术比例</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">出院微创手术人数占比</t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">否</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">是否为国家卫健委临床重点专科</t>
   </si>
   <si>
     <r>
@@ -404,8 +923,9 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">出院患者手术占比 </t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">是</t>
     </r>
     <r>
       <rPr>
@@ -415,7 +935,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">* </t>
+      <t xml:space="preserve">7</t>
     </r>
     <r>
       <rPr>
@@ -423,35 +943,10 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">出院患者微创手术占比</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">下转患者人次数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人次</t>
-  </si>
-  <si>
-    <t xml:space="preserve">住院下转患者人次数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门急诊下转患者人次数</t>
-  </si>
-  <si>
-    <t xml:space="preserve">住院手术患者围手术期中医治疗比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出院患者四级手术比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出院患者微创手术占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">出院患者手术占比</t>
-  </si>
-  <si>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">否</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -460,8 +955,16 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">CMI</t>
-    </r>
+      <t xml:space="preserve">0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">是否为国家中医药局重点专科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是否为省教育厅或科技厅重点学科或重点实验室</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -470,7 +973,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">当量</t>
+      <t xml:space="preserve">是</t>
     </r>
     <r>
       <rPr>
@@ -480,7 +983,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">DRGs</t>
+      <t xml:space="preserve">6</t>
     </r>
     <r>
       <rPr>
@@ -490,13 +993,8 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">组数</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">组</t>
-  </si>
-  <si>
+      <t xml:space="preserve">否</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -505,16 +1003,22 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">CMI</t>
-    </r>
+      <t xml:space="preserve">0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">是否为省卫健委重点专科</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">值 </t>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">是</t>
     </r>
     <r>
       <rPr>
@@ -524,7 +1028,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">* DRGs</t>
+      <t xml:space="preserve">5</t>
     </r>
     <r>
       <rPr>
@@ -532,11 +1036,10 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">组数</t>
-    </r>
-  </si>
-  <si>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">否</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -545,8 +1048,16 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">CMI</t>
-    </r>
+      <t xml:space="preserve">0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">是否为省中医药局重点专科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是否为地级市教育局或科技局重点学科或实验室</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -555,10 +1066,8 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">值</t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve">是</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -567,7 +1076,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">DRGs</t>
+      <t xml:space="preserve">4</t>
     </r>
     <r>
       <rPr>
@@ -577,38 +1086,21 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">组数</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">医疗服务收入三年复合增长率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医疗服务收入占全院比重</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医疗服务收入占全院医疗服务收入的比重</t>
-  </si>
-  <si>
-    <t xml:space="preserve">有效收入三年复合增长率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">有效收入三年符合增长率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">有效收入占全院比重</t>
-  </si>
-  <si>
-    <t xml:space="preserve">有效收入占全院有效收入合计的比重</t>
-  </si>
-  <si>
-    <t xml:space="preserve">基本药物采购金额占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">省级药品集中采购平台</t>
-  </si>
-  <si>
-    <t xml:space="preserve">重点监控药品收入占比</t>
+      <t xml:space="preserve">否</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">是否为地级卫健委重点专科</t>
   </si>
   <si>
     <r>
@@ -619,7 +1111,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">抗菌药物使用强度</t>
+      <t xml:space="preserve">是</t>
     </r>
     <r>
       <rPr>
@@ -629,67 +1121,8 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">DDDs</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">逐步降低</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DDD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">基本药物采购品种数占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">省级招采平台</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点评中药处方占中药处方总数的比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">点评处方占处方总数的比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">住院患者基本药物使用率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊患者基本药物处方占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">国家组织药品集中采购中标药品金额占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">重点监控高值医用耗材收入占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">重点学科等级评分</t>
-  </si>
-  <si>
-    <t xml:space="preserve">根据国家省市重点学科、专科得分取大弃小累计</t>
-  </si>
-  <si>
-    <t xml:space="preserve">博士研究生导师占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">外省住院患者占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">硕士研究生导师占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">非医嘱离院率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是否为教育部或科技部重点学科或重点实验室</t>
-  </si>
-  <si>
-    <t xml:space="preserve">科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">分</t>
-  </si>
-  <si>
+      <t xml:space="preserve">3</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -698,6 +1131,34 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">否</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">0</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">是否为地级中医药局重点专科</t>
+  </si>
+  <si>
+    <t xml:space="preserve">是否为县级市教育局或科技局重点学科或实验室</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="PingFang SC"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">是</t>
     </r>
     <r>
@@ -708,7 +1169,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8</t>
+      <t xml:space="preserve">2</t>
     </r>
     <r>
       <rPr>
@@ -732,7 +1193,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">是否为国家卫健委临床重点专科</t>
+    <t xml:space="preserve">是否为县级卫健委重点专科</t>
   </si>
   <si>
     <r>
@@ -753,7 +1214,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7</t>
+      <t xml:space="preserve">1</t>
     </r>
     <r>
       <rPr>
@@ -777,380 +1238,9 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">是否为国家中医药局重点专科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是否为省教育厅或科技厅重点学科或重点实验室</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">否</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">是否为省卫健委重点专科</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">否</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">是否为省中医药局重点专科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是否为地级市教育局或科技局重点学科或实验室</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">否</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">是否为地级卫健委重点专科</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">否</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">是否为地级中医药局重点专科</t>
-  </si>
-  <si>
-    <t xml:space="preserve">是否为县级市教育局或科技局重点学科或实验室</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">否</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">是否为县级卫健委重点专科</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">否</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">是否为县级中医药局重点专科</t>
   </si>
   <si>
-    <t xml:space="preserve">每百名卫生技术人员科研成果转化金额</t>
-  </si>
-  <si>
-    <t xml:space="preserve">元</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人才培养经费投入占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每百名卫生技术人员中医药科研项目经费</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每百名卫生技术人员科研项目经费</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每百名卫生技术人员中医药科研成果转化金额</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每百名卫生技术人员重点专科经费投入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">每百名卫生技术人员重点学科经费投入</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中药收入占药品收入比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">财务年报表</t>
-  </si>
-  <si>
-    <t xml:space="preserve">中药饮片收入占药品收入比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">住院中医医疗服务项目收入占住院医疗收入比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">财务年报表、医院填报</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医疗机构中药制剂收入占药品收入比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊中医医疗服务项目收入占门诊医疗收入比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人员支出占业务支出比重</t>
-  </si>
-  <si>
-    <t xml:space="preserve">资产负债率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">万元收入能耗占比</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">吨标煤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">万元</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">医疗服务收入占医疗收入比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">收支结余</t>
-  </si>
-  <si>
     <t xml:space="preserve">医疗服务收入</t>
   </si>
   <si>
@@ -1163,92 +1253,10 @@
     <t xml:space="preserve">有效收入</t>
   </si>
   <si>
-    <t xml:space="preserve">省级室间质量评价临床检验项目参加率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">省级卫生健康委</t>
-  </si>
-  <si>
-    <t xml:space="preserve">省级室间质量评价临床检验项目合格率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">电子病历应用功能水平分级</t>
-  </si>
-  <si>
-    <t xml:space="preserve">级别</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊患者平均预约诊疗率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊患者预约后平均等待时间</t>
-  </si>
-  <si>
-    <t xml:space="preserve">分钟</t>
-  </si>
-  <si>
     <t xml:space="preserve">平均住院日</t>
   </si>
   <si>
     <t xml:space="preserve">天</t>
-  </si>
-  <si>
-    <t xml:space="preserve">低风险组病例死亡率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">通过国家室间质量评价的临床检验项目数</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">类切口手术部位感染率</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">手术患者并发症发生率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">优质护理服务病房覆盖率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">理法方药使用一致的出院患者比例</t>
-  </si>
-  <si>
-    <t xml:space="preserve">次均药品费用增幅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">次均费用增幅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">住院次均药品费用增幅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">住院次均费用增幅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊次均药品费用增幅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">门诊次均费用增幅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">医疗收入增幅</t>
   </si>
   <si>
     <t xml:space="preserve">医师人数与开放床位数比</t>
@@ -1366,7 +1374,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1395,12 +1403,6 @@
       <name val="PingFang SC"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="PingFang SC"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1445,16 +1447,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1478,10 +1476,10 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="57:57 C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9"/>
@@ -1546,10 +1544,10 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="57:57 B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="9"/>
@@ -1727,20 +1725,20 @@
   </sheetPr>
   <dimension ref="A1:L121"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="L119" activeCellId="0" sqref="L119"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A57" activeCellId="0" sqref="57:57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="0" width="7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="41.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="41.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1807,18 +1805,18 @@
         <v>35</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>12</v>
@@ -1830,30 +1828,30 @@
         <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -1865,30 +1863,30 @@
         <v>31</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>12</v>
@@ -1900,30 +1898,30 @@
         <v>31</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -1935,138 +1933,138 @@
         <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>30</v>
@@ -2075,132 +2073,138 @@
         <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>58</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>59</v>
+      <c r="L11" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="K12" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>62</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>30</v>
@@ -2209,33 +2213,33 @@
         <v>31</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>30</v>
@@ -2244,1305 +2248,1299 @@
         <v>31</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>75</v>
+        <v>41</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>33</v>
+        <v>69</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>86</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="I35" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L35" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L36" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>0.382</v>
+      <c r="A39" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L39" s="0" t="s">
-        <v>98</v>
+        <v>42</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B40" s="0" t="n">
-        <v>0.618</v>
-      </c>
       <c r="C40" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>0.382</v>
+        <v>102</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L42" s="2" t="s">
-        <v>101</v>
+        <v>42</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>0.618</v>
+        <v>104</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F43" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L43" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>0.382</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="I44" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>105</v>
+        <v>41</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B45" s="0" t="n">
-        <v>0.618</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="I45" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>107</v>
+        <v>42</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G48" s="0" t="s">
-        <v>113</v>
+        <v>69</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L49" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L51" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>118</v>
+      <c r="A52" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>0.382</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>31</v>
@@ -3551,33 +3549,36 @@
         <v>32</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
+      </c>
+      <c r="L52" s="0" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>0.382</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>31</v>
@@ -3586,33 +3587,36 @@
         <v>32</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>0.618</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>31</v>
@@ -3621,252 +3625,270 @@
         <v>32</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L54" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>121</v>
       </c>
+      <c r="B55" s="0" t="n">
+        <v>0.382</v>
+      </c>
       <c r="C55" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K55" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L55" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>54</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>0.618</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L56" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>54</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3874,1086 +3896,1080 @@
         <v>132</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>130</v>
+        <v>33</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>136</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L65" s="1" t="s">
+      <c r="H66" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
+      <c r="C67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H66" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J66" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L66" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H67" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J67" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L67" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="C68" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>129</v>
+        <v>49</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>52</v>
+        <v>142</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>146</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>148</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>130</v>
+        <v>39</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>151</v>
+        <v>39</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L74" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>151</v>
+        <v>39</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L75" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>58</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>151</v>
+        <v>39</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L76" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K77" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L79" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>159</v>
+        <v>61</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="K80" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>159</v>
+        <v>61</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="K81" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L81" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>162</v>
+        <v>61</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L82" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>162</v>
+        <v>61</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="K83" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L83" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="K84" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L84" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>42</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>33</v>
+        <v>159</v>
       </c>
       <c r="H85" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="I85" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L85" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="H86" s="1" t="s">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L86" s="2" t="s">
-        <v>37</v>
+        <v>160</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>159</v>
+        <v>51</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K87" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L87" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>159</v>
+        <v>51</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L88" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>159</v>
+        <v>51</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="K89" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L89" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="s">
-        <v>171</v>
+        <v>42</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B90" s="0" t="n">
+        <v>0.618</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>172</v>
+        <v>32</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="s">
-        <v>173</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>166</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>31</v>
@@ -4962,33 +4978,30 @@
         <v>32</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>176</v>
+        <v>34</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="K93" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L93" s="2" t="s">
-        <v>37</v>
+        <v>160</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>31</v>
@@ -4997,617 +5010,602 @@
         <v>32</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>176</v>
+        <v>34</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="L94" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>179</v>
+        <v>39</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="K95" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L95" s="2" t="s">
-        <v>37</v>
+        <v>160</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L96" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>160</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L97" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>160</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="K98" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L98" s="2" t="s">
-        <v>37</v>
+        <v>160</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L99" s="2" t="s">
-        <v>37</v>
+        <v>160</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L100" s="2" t="s">
-        <v>37</v>
+        <v>160</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
-        <v>187</v>
+      <c r="A101" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L101" s="2" t="s">
-        <v>37</v>
+        <v>160</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="K102" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L102" s="2" t="s">
-        <v>37</v>
+        <v>160</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="K103" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L103" s="2" t="s">
-        <v>37</v>
+        <v>160</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="K104" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L104" s="2" t="s">
-        <v>37</v>
+        <v>160</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="K105" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L105" s="2" t="s">
-        <v>37</v>
+        <v>160</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>33</v>
+        <v>172</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>159</v>
+        <v>34</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="K106" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L106" s="2" t="s">
-        <v>37</v>
+        <v>160</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G108" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F107" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J107" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K107" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L107" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="1" t="s">
+      <c r="H108" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K108" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L108" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="s">
+      <c r="C109" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K109" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L109" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="1" t="s">
+      <c r="C110" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L110" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="s">
+      <c r="C111" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G111" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="H111" s="1" t="s">
-        <v>159</v>
+        <v>51</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="K111" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="L111" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5618,28 +5616,28 @@
         <v>19</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E112" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5656,22 +5654,22 @@
         <v>31</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5682,28 +5680,28 @@
         <v>19</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>201</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5714,7 +5712,7 @@
         <v>19</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E115" s="1" t="s">
         <v>31</v>
@@ -5723,19 +5721,19 @@
         <v>203</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5746,28 +5744,28 @@
         <v>19</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5778,28 +5776,28 @@
         <v>19</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>201</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5810,30 +5808,30 @@
         <v>19</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L118" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L118" s="1" t="s">
         <v>207</v>
       </c>
     </row>
@@ -5845,30 +5843,30 @@
         <v>19</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L119" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L119" s="1" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5880,30 +5878,30 @@
         <v>19</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="K120" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L120" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L120" s="1" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5915,30 +5913,30 @@
         <v>19</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="K121" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="L121" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="L121" s="1" t="s">
         <v>213</v>
       </c>
     </row>
@@ -5961,10 +5959,10 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="57:57 B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4609375" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.16"/>

--- a/cases/goodhostpital2021/项目设置.xlsx
+++ b/cases/goodhostpital2021/项目设置.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="227">
   <si>
     <t xml:space="preserve">数据名</t>
   </si>
@@ -872,370 +872,37 @@
     <t xml:space="preserve">分</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">否</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0</t>
-    </r>
+    <t xml:space="preserve">是填1, 否填0</t>
   </si>
   <si>
     <t xml:space="preserve">是否为国家卫健委临床重点专科</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">否</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">是否为国家中医药局重点专科</t>
   </si>
   <si>
     <t xml:space="preserve">是否为省教育厅或科技厅重点学科或重点实验室</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">否</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">是否为省卫健委重点专科</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">否</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">是否为省中医药局重点专科</t>
   </si>
   <si>
     <t xml:space="preserve">是否为地级市教育局或科技局重点学科或实验室</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">否</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">是否为地级卫健委重点专科</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">否</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">是否为地级中医药局重点专科</t>
   </si>
   <si>
     <t xml:space="preserve">是否为县级市教育局或科技局重点学科或实验室</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">否</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">是否为县级卫健委重点专科</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="PingFang SC"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">否</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">是否为县级中医药局重点专科</t>
@@ -1476,10 +1143,10 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="1" sqref="57:57 C1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9"/>
@@ -1544,10 +1211,10 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="57:57 B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="9"/>
@@ -1725,13 +1392,13 @@
   </sheetPr>
   <dimension ref="A1:L121"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A57" activeCellId="0" sqref="57:57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="L101" activeCellId="0" sqref="L101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="9"/>
@@ -5124,12 +4791,12 @@
         <v>160</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>16</v>
@@ -5159,12 +4826,12 @@
         <v>160</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>16</v>
@@ -5194,12 +4861,12 @@
         <v>160</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>16</v>
@@ -5229,12 +4896,12 @@
         <v>160</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>16</v>
@@ -5264,12 +4931,12 @@
         <v>160</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>16</v>
@@ -5299,12 +4966,12 @@
         <v>160</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>16</v>
@@ -5334,12 +5001,12 @@
         <v>160</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>16</v>
@@ -5369,12 +5036,12 @@
         <v>160</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>16</v>
@@ -5404,12 +5071,12 @@
         <v>160</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>16</v>
@@ -5439,12 +5106,12 @@
         <v>160</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>16</v>
@@ -5474,12 +5141,12 @@
         <v>160</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>17</v>
@@ -5494,7 +5161,7 @@
         <v>32</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>34</v>
@@ -5511,7 +5178,7 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>17</v>
@@ -5526,7 +5193,7 @@
         <v>101</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>34</v>
@@ -5543,7 +5210,7 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>17</v>
@@ -5558,7 +5225,7 @@
         <v>32</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>34</v>
@@ -5575,7 +5242,7 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>10</v>
@@ -5590,7 +5257,7 @@
         <v>60</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>51</v>
@@ -5610,7 +5277,7 @@
     </row>
     <row r="112" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>19</v>
@@ -5642,7 +5309,7 @@
     </row>
     <row r="113" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>19</v>
@@ -5674,7 +5341,7 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>19</v>
@@ -5689,7 +5356,7 @@
         <v>101</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>34</v>
@@ -5706,7 +5373,7 @@
     </row>
     <row r="115" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>19</v>
@@ -5718,7 +5385,7 @@
         <v>31</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>39</v>
@@ -5738,7 +5405,7 @@
     </row>
     <row r="116" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>19</v>
@@ -5770,7 +5437,7 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>19</v>
@@ -5785,7 +5452,7 @@
         <v>101</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>34</v>
@@ -5802,7 +5469,7 @@
     </row>
     <row r="118" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>19</v>
@@ -5832,12 +5499,12 @@
         <v>160</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>19</v>
@@ -5867,12 +5534,12 @@
         <v>160</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>19</v>
@@ -5902,12 +5569,12 @@
         <v>160</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>19</v>
@@ -5937,7 +5604,7 @@
         <v>160</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -5959,10 +5626,10 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="57:57 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.453125" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.16"/>
@@ -5973,151 +5640,151 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/cases/goodhostpital2021/项目设置.xlsx
+++ b/cases/goodhostpital2021/项目设置.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="227">
   <si>
     <t xml:space="preserve">数据名</t>
   </si>
@@ -1041,7 +1041,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1070,6 +1070,13 @@
       <name val="PingFang SC"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1114,12 +1121,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1146,13 +1157,13 @@
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1160,7 +1171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1168,7 +1179,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1176,7 +1187,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1184,7 +1195,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1214,13 +1225,13 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1231,7 +1242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1242,7 +1253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -1253,7 +1264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1264,7 +1275,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1275,7 +1286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1286,7 +1297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1297,7 +1308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1308,7 +1319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1319,7 +1330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1330,7 +1341,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,7 +1352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,7 +1363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1363,7 +1374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -1392,23 +1403,23 @@
   </sheetPr>
   <dimension ref="A1:L121"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
-      <selection pane="bottomLeft" activeCell="L101" activeCellId="0" sqref="L101"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="I118" activeCellId="0" sqref="I118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="0" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="41.51"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1446,7 +1457,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -1481,7 +1492,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -1516,7 +1527,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
@@ -1551,7 +1562,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
@@ -1586,7 +1597,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -1621,7 +1632,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
@@ -1656,7 +1667,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
@@ -1691,7 +1702,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
@@ -1726,7 +1737,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
@@ -1761,7 +1772,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>59</v>
       </c>
@@ -1796,7 +1807,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
@@ -1831,7 +1842,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
@@ -1866,7 +1877,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
@@ -1901,7 +1912,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>67</v>
       </c>
@@ -1936,7 +1947,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>68</v>
       </c>
@@ -1971,7 +1982,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>70</v>
       </c>
@@ -2006,7 +2017,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>72</v>
       </c>
@@ -2041,7 +2052,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>73</v>
       </c>
@@ -2076,7 +2087,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>74</v>
       </c>
@@ -2111,7 +2122,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>75</v>
       </c>
@@ -2146,7 +2157,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>77</v>
       </c>
@@ -2181,7 +2192,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>79</v>
       </c>
@@ -2216,7 +2227,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>80</v>
       </c>
@@ -2251,7 +2262,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>81</v>
       </c>
@@ -2286,7 +2297,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>82</v>
       </c>
@@ -2321,7 +2332,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>83</v>
       </c>
@@ -2356,7 +2367,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>84</v>
       </c>
@@ -2391,7 +2402,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>85</v>
       </c>
@@ -2426,7 +2437,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>87</v>
       </c>
@@ -2461,7 +2472,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>88</v>
       </c>
@@ -2496,7 +2507,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>89</v>
       </c>
@@ -2531,7 +2542,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>90</v>
       </c>
@@ -2566,7 +2577,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>91</v>
       </c>
@@ -2601,7 +2612,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>93</v>
       </c>
@@ -2636,7 +2647,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>94</v>
       </c>
@@ -2671,7 +2682,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>95</v>
       </c>
@@ -2706,7 +2717,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>96</v>
       </c>
@@ -2741,7 +2752,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>97</v>
       </c>
@@ -2776,7 +2787,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>99</v>
       </c>
@@ -2811,7 +2822,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>100</v>
       </c>
@@ -2846,7 +2857,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>102</v>
       </c>
@@ -2881,7 +2892,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>104</v>
       </c>
@@ -2916,7 +2927,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>105</v>
       </c>
@@ -2951,7 +2962,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>106</v>
       </c>
@@ -2986,7 +2997,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>107</v>
       </c>
@@ -3021,7 +3032,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>108</v>
       </c>
@@ -3056,7 +3067,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>109</v>
       </c>
@@ -3091,7 +3102,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>110</v>
       </c>
@@ -3126,7 +3137,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>111</v>
       </c>
@@ -3161,7 +3172,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>113</v>
       </c>
@@ -3196,7 +3207,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>115</v>
       </c>
@@ -3234,7 +3245,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>118</v>
       </c>
@@ -3272,7 +3283,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>119</v>
       </c>
@@ -3310,7 +3321,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>121</v>
       </c>
@@ -3348,7 +3359,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>123</v>
       </c>
@@ -3386,7 +3397,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>125</v>
       </c>
@@ -3418,7 +3429,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>128</v>
       </c>
@@ -3453,7 +3464,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>129</v>
       </c>
@@ -3488,7 +3499,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>130</v>
       </c>
@@ -3523,7 +3534,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>131</v>
       </c>
@@ -3558,7 +3569,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>132</v>
       </c>
@@ -3593,7 +3604,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>133</v>
       </c>
@@ -3628,7 +3639,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>134</v>
       </c>
@@ -3663,7 +3674,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>135</v>
       </c>
@@ -3698,7 +3709,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>136</v>
       </c>
@@ -3733,7 +3744,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>138</v>
       </c>
@@ -3768,7 +3779,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>139</v>
       </c>
@@ -3803,7 +3814,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>140</v>
       </c>
@@ -3838,7 +3849,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>141</v>
       </c>
@@ -3873,7 +3884,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>143</v>
       </c>
@@ -3908,7 +3919,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>144</v>
       </c>
@@ -3943,7 +3954,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>145</v>
       </c>
@@ -3978,7 +3989,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>146</v>
       </c>
@@ -4013,7 +4024,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>147</v>
       </c>
@@ -4048,7 +4059,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>148</v>
       </c>
@@ -4083,7 +4094,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>149</v>
       </c>
@@ -4118,7 +4129,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>150</v>
       </c>
@@ -4153,7 +4164,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>151</v>
       </c>
@@ -4188,7 +4199,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>152</v>
       </c>
@@ -4223,7 +4234,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>153</v>
       </c>
@@ -4258,7 +4269,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>155</v>
       </c>
@@ -4293,7 +4304,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>156</v>
       </c>
@@ -4328,7 +4339,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>157</v>
       </c>
@@ -4363,7 +4374,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>158</v>
       </c>
@@ -4395,7 +4406,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>161</v>
       </c>
@@ -4427,7 +4438,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>162</v>
       </c>
@@ -4462,7 +4473,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>163</v>
       </c>
@@ -4497,7 +4508,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>164</v>
       </c>
@@ -4532,7 +4543,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
         <v>165</v>
       </c>
@@ -4564,7 +4575,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
         <v>166</v>
       </c>
@@ -4596,7 +4607,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>167</v>
       </c>
@@ -4628,7 +4639,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>168</v>
       </c>
@@ -4660,7 +4671,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>169</v>
       </c>
@@ -4692,7 +4703,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>170</v>
       </c>
@@ -4724,7 +4735,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>171</v>
       </c>
@@ -4759,7 +4770,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>174</v>
       </c>
@@ -4794,7 +4805,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>175</v>
       </c>
@@ -4829,7 +4840,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>176</v>
       </c>
@@ -4864,7 +4875,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>177</v>
       </c>
@@ -4899,7 +4910,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>178</v>
       </c>
@@ -4934,7 +4945,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
         <v>179</v>
       </c>
@@ -4969,7 +4980,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>180</v>
       </c>
@@ -5004,7 +5015,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>181</v>
       </c>
@@ -5039,7 +5050,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>182</v>
       </c>
@@ -5074,7 +5085,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>183</v>
       </c>
@@ -5109,7 +5120,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>184</v>
       </c>
@@ -5144,7 +5155,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>185</v>
       </c>
@@ -5176,7 +5187,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>187</v>
       </c>
@@ -5208,7 +5219,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>188</v>
       </c>
@@ -5240,7 +5251,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>189</v>
       </c>
@@ -5275,7 +5286,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>191</v>
       </c>
@@ -5298,16 +5309,19 @@
         <v>34</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+      <c r="L112" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>192</v>
       </c>
@@ -5330,16 +5344,19 @@
         <v>34</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+      <c r="L113" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>193</v>
       </c>
@@ -5362,16 +5379,19 @@
         <v>34</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+      <c r="L114" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>195</v>
       </c>
@@ -5394,16 +5414,19 @@
         <v>34</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="K115" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
         <v>197</v>
       </c>
@@ -5426,16 +5449,19 @@
         <v>34</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+      <c r="L116" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
         <v>198</v>
       </c>
@@ -5458,13 +5484,16 @@
         <v>34</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="K117" s="1" t="s">
-        <v>160</v>
+        <v>35</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5502,7 +5531,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
         <v>201</v>
       </c>
@@ -5537,7 +5566,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
         <v>203</v>
       </c>
@@ -5572,7 +5601,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
         <v>205</v>
       </c>
@@ -5629,13 +5658,13 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4453125" defaultRowHeight="15.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.13"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5643,7 +5672,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>208</v>
       </c>
@@ -5651,7 +5680,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>210</v>
       </c>
@@ -5659,7 +5688,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>211</v>
       </c>
@@ -5667,7 +5696,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>212</v>
       </c>
@@ -5675,7 +5704,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>213</v>
       </c>
@@ -5683,7 +5712,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>214</v>
       </c>
@@ -5691,7 +5720,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>215</v>
       </c>
@@ -5699,7 +5728,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>216</v>
       </c>
@@ -5707,7 +5736,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>217</v>
       </c>
@@ -5715,7 +5744,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>218</v>
       </c>
@@ -5723,7 +5752,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>219</v>
       </c>
@@ -5731,7 +5760,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>220</v>
       </c>
@@ -5739,7 +5768,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>221</v>
       </c>
@@ -5747,7 +5776,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>222</v>
       </c>
@@ -5755,7 +5784,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>223</v>
       </c>
@@ -5763,7 +5792,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>224</v>
       </c>
@@ -5771,7 +5800,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>225</v>
       </c>
@@ -5779,7 +5808,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>226</v>
       </c>

--- a/cases/goodhostpital2021/项目设置.xlsx
+++ b/cases/goodhostpital2021/项目设置.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="一级指标设置" sheetId="1" state="visible" r:id="rId2"/>
@@ -1154,10 +1154,10 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9"/>
@@ -1184,7 +1184,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1192,7 +1192,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1200,7 +1200,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -1221,11 +1221,11 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="9"/>
@@ -1302,7 +1302,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
@@ -1313,7 +1313,7 @@
         <v>13</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
@@ -1324,7 +1324,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -1357,7 +1357,7 @@
         <v>17</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>5</v>
@@ -1379,7 +1379,7 @@
         <v>19</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>5</v>
@@ -1403,13 +1403,13 @@
   </sheetPr>
   <dimension ref="A1:L121"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="I118" activeCellId="0" sqref="I118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.46875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="9"/>
@@ -5658,7 +5658,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.13"/>
